--- a/capiq_data/in_process_data/IQ34745.xlsx
+++ b/capiq_data/in_process_data/IQ34745.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E396F006-1A69-4534-A2DC-8FA94AFA1684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52482D88-39F7-4AEE-93E7-8B6239D5D0C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1fff615c-4861-45f9-acb3-3048d5d93878"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"886f5837-e7a0-43f7-880b-09c47ec7ad55"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>346.6</v>
+        <v>48.994999999999997</v>
       </c>
       <c r="D2">
-        <v>2950.8</v>
+        <v>667.38699999999994</v>
       </c>
       <c r="E2">
-        <v>316.10000000000002</v>
+        <v>78.349000000000004</v>
       </c>
       <c r="F2">
-        <v>1758.5</v>
+        <v>375.16699999999997</v>
       </c>
       <c r="G2">
-        <v>3400.4</v>
+        <v>527.29100000000005</v>
       </c>
       <c r="H2">
-        <v>6931.1</v>
+        <v>1601.848</v>
       </c>
       <c r="I2">
-        <v>296.8</v>
+        <v>84.281000000000006</v>
       </c>
       <c r="J2">
-        <v>549.4</v>
+        <v>6.31</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>58.301000000000002</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="N2">
-        <v>1956.4</v>
+        <v>341.197</v>
       </c>
       <c r="O2">
-        <v>2870.8</v>
+        <v>370.11599999999999</v>
       </c>
       <c r="P2">
-        <v>549.4</v>
+        <v>65.299000000000007</v>
       </c>
       <c r="Q2">
-        <v>628</v>
+        <v>106.624</v>
       </c>
       <c r="R2">
-        <v>40545</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>4060.3</v>
+        <v>1231.732</v>
       </c>
       <c r="U2">
-        <v>1792</v>
+        <v>177.441</v>
       </c>
       <c r="V2">
-        <v>673.6</v>
+        <v>161.07</v>
       </c>
       <c r="W2">
-        <v>-96.9</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-9.9</v>
+        <v>20.065999999999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>92.8</v>
+        <v>2.9590000000000001</v>
       </c>
       <c r="AA2">
-        <v>346.6</v>
+        <v>48.994999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>261.5</v>
+        <v>32.21</v>
       </c>
       <c r="D3">
-        <v>2785.7</v>
+        <v>629.28800000000001</v>
       </c>
       <c r="E3">
-        <v>355.7</v>
+        <v>75.981999999999999</v>
       </c>
       <c r="F3">
-        <v>1614.5</v>
+        <v>358.11</v>
       </c>
       <c r="G3">
-        <v>3540.3</v>
+        <v>558.02300000000002</v>
       </c>
       <c r="H3">
-        <v>7027.6</v>
+        <v>1668.269</v>
       </c>
       <c r="I3">
-        <v>330.2</v>
+        <v>86.233000000000004</v>
       </c>
       <c r="J3">
-        <v>549.4</v>
+        <v>6.157</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>52.637</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1794.2</v>
+        <v>339.87299999999999</v>
       </c>
       <c r="O3">
-        <v>2700.4</v>
+        <v>371.673</v>
       </c>
       <c r="P3">
-        <v>549.4</v>
+        <v>59.484999999999999</v>
       </c>
       <c r="Q3">
-        <v>-146.80000000000001</v>
+        <v>37.738999999999997</v>
       </c>
       <c r="R3">
-        <v>40636</v>
+        <v>36982</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4327.2</v>
+        <v>1296.596</v>
       </c>
       <c r="U3">
-        <v>1645.2</v>
+        <v>215.18</v>
       </c>
       <c r="V3">
-        <v>-4.0999999999999996</v>
+        <v>106.20699999999999</v>
       </c>
       <c r="W3">
-        <v>-97.4</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-51.4</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>16.8</v>
+        <v>-2E-3</v>
       </c>
       <c r="AA3">
-        <v>261.60000000000002</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>279.3</v>
+        <v>46.756999999999998</v>
       </c>
       <c r="D4">
-        <v>2932.2</v>
+        <v>662.76900000000001</v>
       </c>
       <c r="E4">
-        <v>361.5</v>
+        <v>95.942999999999998</v>
       </c>
       <c r="F4">
-        <v>1694.7</v>
+        <v>391.41899999999998</v>
       </c>
       <c r="G4">
-        <v>3587</v>
+        <v>624.79399999999998</v>
       </c>
       <c r="H4">
-        <v>7097.8</v>
+        <v>1782.8420000000001</v>
       </c>
       <c r="I4">
-        <v>339.9</v>
+        <v>95.272000000000006</v>
       </c>
       <c r="J4">
-        <v>549.4</v>
+        <v>5.9610000000000003</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>65.992000000000004</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1859.4</v>
+        <v>393.62400000000002</v>
       </c>
       <c r="O4">
-        <v>2756.3</v>
+        <v>422.25799999999998</v>
       </c>
       <c r="P4">
-        <v>549.4</v>
+        <v>72.647000000000006</v>
       </c>
       <c r="Q4">
-        <v>75.599999999999994</v>
+        <v>-63.189</v>
       </c>
       <c r="R4">
-        <v>40727</v>
+        <v>37073</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>4341.5</v>
+        <v>1360.5840000000001</v>
       </c>
       <c r="U4">
-        <v>1720.8</v>
+        <v>151.99100000000001</v>
       </c>
       <c r="V4">
-        <v>457.2</v>
+        <v>71.774000000000001</v>
       </c>
       <c r="W4">
-        <v>-97.8</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-306.10000000000002</v>
+        <v>24.129000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>54.4</v>
+        <v>-62.179000000000002</v>
       </c>
       <c r="AA4">
-        <v>279.10000000000002</v>
+        <v>46.756999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>358.3</v>
+        <v>53.247999999999998</v>
       </c>
       <c r="D5">
-        <v>3031.7</v>
+        <v>689.53599999999994</v>
       </c>
       <c r="E5">
-        <v>386.5</v>
+        <v>90.424999999999997</v>
       </c>
       <c r="F5">
-        <v>1717.2</v>
+        <v>411.49900000000002</v>
       </c>
       <c r="G5">
-        <v>3794.9</v>
+        <v>593.92499999999995</v>
       </c>
       <c r="H5">
-        <v>7360.4</v>
+        <v>1846.519</v>
       </c>
       <c r="I5">
-        <v>540</v>
+        <v>127.905</v>
       </c>
       <c r="J5">
-        <v>549.5</v>
+        <v>5.7859999999999996</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>61.987000000000002</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2075.8000000000002</v>
+        <v>445.26400000000001</v>
       </c>
       <c r="O5">
-        <v>2973.1</v>
+        <v>470.59199999999998</v>
       </c>
       <c r="P5">
-        <v>549.5</v>
+        <v>68.47</v>
       </c>
       <c r="Q5">
-        <v>-572.70000000000005</v>
+        <v>-38.753999999999998</v>
       </c>
       <c r="R5">
-        <v>40818</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>149000</v>
+        <v>54000</v>
       </c>
       <c r="T5">
-        <v>4387.3</v>
+        <v>1375.9269999999999</v>
       </c>
       <c r="U5">
-        <v>1148.0999999999999</v>
+        <v>113.23699999999999</v>
       </c>
       <c r="V5">
-        <v>485.7</v>
+        <v>117.254</v>
       </c>
       <c r="W5">
-        <v>-97.4</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-240.6</v>
+        <v>-47.723999999999997</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-700</v>
+        <v>19.454999999999998</v>
       </c>
       <c r="AA5">
-        <v>358.3</v>
+        <v>53.247999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>382.1</v>
+        <v>68.355000000000004</v>
       </c>
       <c r="D6">
-        <v>3435.9</v>
+        <v>805.33500000000004</v>
       </c>
       <c r="E6">
-        <v>431</v>
+        <v>89.712999999999994</v>
       </c>
       <c r="F6">
-        <v>944.4</v>
+        <v>468.30599999999998</v>
       </c>
       <c r="G6">
-        <v>4237.1000000000004</v>
+        <v>650.70299999999997</v>
       </c>
       <c r="H6">
-        <v>7835.6</v>
+        <v>1964.4459999999999</v>
       </c>
       <c r="I6">
-        <v>365.9</v>
+        <v>84.525000000000006</v>
       </c>
       <c r="J6">
-        <v>549.5</v>
+        <v>5.609</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>58.241999999999997</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-0.17299999999999999</v>
       </c>
       <c r="N6">
-        <v>2158.8000000000002</v>
+        <v>439.06799999999998</v>
       </c>
       <c r="O6">
-        <v>3060.3</v>
+        <v>463.66699999999997</v>
       </c>
       <c r="P6">
-        <v>549.5</v>
+        <v>64.551000000000002</v>
       </c>
       <c r="Q6">
-        <v>421.5</v>
+        <v>117.34099999999999</v>
       </c>
       <c r="R6">
-        <v>40909</v>
+        <v>37255</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>4775.3</v>
+        <v>1500.779</v>
       </c>
       <c r="U6">
-        <v>1569.6</v>
+        <v>226.833</v>
       </c>
       <c r="V6">
-        <v>466.3</v>
+        <v>146.63999999999999</v>
       </c>
       <c r="W6">
-        <v>-126.8</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-26.6</v>
+        <v>20.65</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>158.69999999999999</v>
+        <v>39.235999999999997</v>
       </c>
       <c r="AA6">
-        <v>382.1</v>
+        <v>68.355000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>309.8</v>
+        <v>31.088000000000001</v>
       </c>
       <c r="D7">
-        <v>3195.9</v>
+        <v>783.21699999999998</v>
       </c>
       <c r="E7">
-        <v>437.4</v>
+        <v>85.971000000000004</v>
       </c>
       <c r="F7">
-        <v>1784</v>
+        <v>463.13600000000002</v>
       </c>
       <c r="G7">
-        <v>4351.5</v>
+        <v>661.80200000000002</v>
       </c>
       <c r="H7">
-        <v>8006.5</v>
+        <v>2019.6020000000001</v>
       </c>
       <c r="I7">
-        <v>388.3</v>
+        <v>99.6</v>
       </c>
       <c r="J7">
-        <v>549.6</v>
+        <v>5.4240000000000004</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>48.82</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1971.4</v>
+        <v>411.77600000000001</v>
       </c>
       <c r="O7">
-        <v>2869.8</v>
+        <v>435.44</v>
       </c>
       <c r="P7">
-        <v>549.6</v>
+        <v>54.947000000000003</v>
       </c>
       <c r="Q7">
-        <v>-137.4</v>
+        <v>-55.567</v>
       </c>
       <c r="R7">
-        <v>41000</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>5136.7</v>
+        <v>1584.162</v>
       </c>
       <c r="U7">
-        <v>1432.2</v>
+        <v>161.84399999999999</v>
       </c>
       <c r="V7">
-        <v>109.3</v>
+        <v>85.415999999999997</v>
       </c>
       <c r="W7">
-        <v>-128.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>14.7</v>
+        <v>37.389000000000003</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-92.7</v>
+        <v>-83.771000000000001</v>
       </c>
       <c r="AA7">
-        <v>309.89999999999998</v>
+        <v>31.722999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>333.2</v>
+        <v>55.667999999999999</v>
       </c>
       <c r="D8">
-        <v>3303.6</v>
+        <v>835.15800000000002</v>
       </c>
       <c r="E8">
-        <v>433</v>
+        <v>93.77</v>
       </c>
       <c r="F8">
-        <v>881.5</v>
+        <v>497.75700000000001</v>
       </c>
       <c r="G8">
-        <v>4569.6000000000004</v>
+        <v>818.69200000000001</v>
       </c>
       <c r="H8">
-        <v>8308.9</v>
+        <v>2215.7600000000002</v>
       </c>
       <c r="I8">
-        <v>402.2</v>
+        <v>121.99299999999999</v>
       </c>
       <c r="J8">
-        <v>549.6</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>58.963999999999999</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2018.2</v>
+        <v>461.00599999999997</v>
       </c>
       <c r="O8">
-        <v>2920.9</v>
+        <v>503.67200000000003</v>
       </c>
       <c r="P8">
-        <v>549.6</v>
+        <v>64.924000000000007</v>
       </c>
       <c r="Q8">
-        <v>69.099999999999994</v>
+        <v>37.155000000000001</v>
       </c>
       <c r="R8">
-        <v>41091</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>5388</v>
+        <v>1712.088</v>
       </c>
       <c r="U8">
-        <v>1501.3</v>
+        <v>209.143</v>
       </c>
       <c r="V8">
-        <v>551.29999999999995</v>
+        <v>137.65700000000001</v>
       </c>
       <c r="W8">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-76.599999999999994</v>
+        <v>39.720999999999997</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-191.7</v>
+        <v>-56.173999999999999</v>
       </c>
       <c r="AA8">
-        <v>333.1</v>
+        <v>55.667999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>358.7</v>
+        <v>57.575000000000003</v>
       </c>
       <c r="D9">
-        <v>3364.1</v>
+        <v>865.19799999999998</v>
       </c>
       <c r="E9">
-        <v>485.9</v>
+        <v>97.572999999999993</v>
       </c>
       <c r="F9">
-        <v>915.1</v>
+        <v>509.69799999999998</v>
       </c>
       <c r="G9">
-        <v>4199.6000000000004</v>
+        <v>772.64300000000003</v>
       </c>
       <c r="H9">
-        <v>8219.2000000000007</v>
+        <v>2214.3919999999998</v>
       </c>
       <c r="I9">
-        <v>398.1</v>
+        <v>135.994</v>
       </c>
       <c r="J9">
-        <v>549.6</v>
+        <v>5.0759999999999996</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2209.8000000000002</v>
+        <v>462.59500000000003</v>
       </c>
       <c r="O9">
-        <v>3104.7</v>
+        <v>491.20299999999997</v>
       </c>
       <c r="P9">
-        <v>549.6</v>
+        <v>5.7859999999999996</v>
       </c>
       <c r="Q9">
-        <v>-312.7</v>
+        <v>-50.502000000000002</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37528</v>
       </c>
       <c r="S9">
-        <v>160000</v>
+        <v>62000</v>
       </c>
       <c r="T9">
-        <v>5114.5</v>
+        <v>1723.1890000000001</v>
       </c>
       <c r="U9">
-        <v>1188.5999999999999</v>
+        <v>99.677000000000007</v>
       </c>
       <c r="V9">
-        <v>623.4</v>
+        <v>107.97199999999999</v>
       </c>
       <c r="W9">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-657</v>
+        <v>-43.238</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>173.5</v>
+        <v>-9.157</v>
       </c>
       <c r="AA9">
-        <v>358.7</v>
+        <v>57.575000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>432.2</v>
+        <v>78.363</v>
       </c>
       <c r="D10">
-        <v>3793.2</v>
+        <v>1003.526</v>
       </c>
       <c r="E10">
-        <v>469.2</v>
+        <v>111.249</v>
       </c>
       <c r="F10">
-        <v>1083</v>
+        <v>584.36500000000001</v>
       </c>
       <c r="G10">
-        <v>4416</v>
+        <v>869.04200000000003</v>
       </c>
       <c r="H10">
-        <v>8490.1</v>
+        <v>2353.9520000000002</v>
       </c>
       <c r="I10">
-        <v>380.8</v>
+        <v>124.616</v>
       </c>
       <c r="J10">
-        <v>549.6</v>
+        <v>4.8970000000000002</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-0.17599999999999999</v>
       </c>
       <c r="N10">
-        <v>2390.9</v>
+        <v>531.31100000000004</v>
       </c>
       <c r="O10">
-        <v>3315.1</v>
+        <v>562.83299999999997</v>
       </c>
       <c r="P10">
-        <v>549.6</v>
+        <v>5.61</v>
       </c>
       <c r="Q10">
-        <v>663.5</v>
+        <v>151.78399999999999</v>
       </c>
       <c r="R10">
-        <v>41273</v>
+        <v>37619</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>5175</v>
+        <v>1791.1189999999999</v>
       </c>
       <c r="U10">
-        <v>1852.1</v>
+        <v>251.46100000000001</v>
       </c>
       <c r="V10">
-        <v>1067.3</v>
+        <v>233.74799999999999</v>
       </c>
       <c r="W10">
-        <v>-156.1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-434</v>
+        <v>-18.323</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>276.3</v>
+        <v>29.611000000000001</v>
       </c>
       <c r="AA10">
-        <v>432.2</v>
+        <v>78.363</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>390.3</v>
+        <v>52.030999999999999</v>
       </c>
       <c r="D11">
-        <v>3549.6</v>
+        <v>954.20600000000002</v>
       </c>
       <c r="E11">
-        <v>520</v>
+        <v>103.142</v>
       </c>
       <c r="F11">
-        <v>980.8</v>
+        <v>562.10799999999995</v>
       </c>
       <c r="G11">
-        <v>3810.2</v>
+        <v>906.97</v>
       </c>
       <c r="H11">
-        <v>8502.7999999999993</v>
+        <v>2420.9270000000001</v>
       </c>
       <c r="I11">
-        <v>355.7</v>
+        <v>144.83099999999999</v>
       </c>
       <c r="J11">
-        <v>549.6</v>
+        <v>4.7190000000000003</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2269.6999999999998</v>
+        <v>493.51600000000002</v>
       </c>
       <c r="O11">
-        <v>3175.3</v>
+        <v>526.38199999999995</v>
       </c>
       <c r="P11">
-        <v>549.6</v>
+        <v>5.4349999999999996</v>
       </c>
       <c r="Q11">
-        <v>-628.9</v>
+        <v>-1.06</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37710</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>5327.5</v>
+        <v>1894.5450000000001</v>
       </c>
       <c r="U11">
-        <v>1223.2</v>
+        <v>250.40100000000001</v>
       </c>
       <c r="V11">
-        <v>305.2</v>
+        <v>104.79900000000001</v>
       </c>
       <c r="W11">
-        <v>-157.4</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-284.5</v>
+        <v>39.966999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>173.7</v>
+        <v>-58.113999999999997</v>
       </c>
       <c r="AA11">
-        <v>390.4</v>
+        <v>52.030999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>417.8</v>
+        <v>68.355999999999995</v>
       </c>
       <c r="D12">
-        <v>3735.3</v>
+        <v>1036.7760000000001</v>
       </c>
       <c r="E12">
-        <v>506.8</v>
+        <v>107.47199999999999</v>
       </c>
       <c r="F12">
-        <v>1053.5999999999999</v>
+        <v>611.06700000000001</v>
       </c>
       <c r="G12">
-        <v>4239.7</v>
+        <v>1062.8920000000001</v>
       </c>
       <c r="H12">
-        <v>9062.4</v>
+        <v>2604.125</v>
       </c>
       <c r="I12">
-        <v>415.2</v>
+        <v>180.499</v>
       </c>
       <c r="J12">
-        <v>549.70000000000005</v>
+        <v>4.5419999999999998</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2424.4</v>
+        <v>598.51800000000003</v>
       </c>
       <c r="O12">
-        <v>3314.8</v>
+        <v>627.30600000000004</v>
       </c>
       <c r="P12">
-        <v>549.70000000000005</v>
+        <v>5.2610000000000001</v>
       </c>
       <c r="Q12">
-        <v>207.6</v>
+        <v>13.237</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37801</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>5747.6</v>
+        <v>1976.819</v>
       </c>
       <c r="U12">
-        <v>1430.8</v>
+        <v>263.63799999999998</v>
       </c>
       <c r="V12">
-        <v>665.3</v>
+        <v>149.03200000000001</v>
       </c>
       <c r="W12">
-        <v>-157.4</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-65.3</v>
+        <v>-11.113</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-92.3</v>
+        <v>-50.124000000000002</v>
       </c>
       <c r="AA12">
-        <v>417.8</v>
+        <v>68.355999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-1232</v>
+        <v>68.097999999999999</v>
       </c>
       <c r="D13">
-        <v>3788.7</v>
+        <v>1081.0139999999999</v>
       </c>
       <c r="E13">
-        <v>561.4</v>
+        <v>114.44799999999999</v>
       </c>
       <c r="F13">
-        <v>1081.0999999999999</v>
+        <v>636.548</v>
       </c>
       <c r="G13">
-        <v>5471.4</v>
+        <v>909.98</v>
       </c>
       <c r="H13">
-        <v>11516.7</v>
+        <v>2778.5329999999999</v>
       </c>
       <c r="I13">
-        <v>491.7</v>
+        <v>168.98400000000001</v>
       </c>
       <c r="J13">
-        <v>1299.4000000000001</v>
+        <v>4.3540000000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5377.3</v>
+        <v>574.21299999999997</v>
       </c>
       <c r="O13">
-        <v>7034.4</v>
+        <v>707.423</v>
       </c>
       <c r="P13">
-        <v>1299.4000000000001</v>
+        <v>5.0759999999999996</v>
       </c>
       <c r="Q13">
-        <v>1144.9000000000001</v>
+        <v>-62.731000000000002</v>
       </c>
       <c r="R13">
-        <v>41546</v>
+        <v>37892</v>
       </c>
       <c r="S13">
-        <v>182000</v>
+        <v>74000</v>
       </c>
       <c r="T13">
-        <v>4482.3</v>
+        <v>2071.11</v>
       </c>
       <c r="U13">
-        <v>2575.6999999999998</v>
+        <v>200.90700000000001</v>
       </c>
       <c r="V13">
-        <v>870.5</v>
+        <v>99.569000000000003</v>
       </c>
       <c r="W13">
-        <v>-158</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>675.6</v>
+        <v>20.231999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>4.5999999999999996</v>
+        <v>6.5789999999999997</v>
       </c>
       <c r="AA13">
-        <v>-1232</v>
+        <v>68.097999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>540.70000000000005</v>
+        <v>110.13500000000001</v>
       </c>
       <c r="D14">
-        <v>4239.6000000000004</v>
+        <v>1281.191</v>
       </c>
       <c r="E14">
-        <v>589.79999999999995</v>
+        <v>122.809</v>
       </c>
       <c r="F14">
-        <v>1269.4000000000001</v>
+        <v>752.48199999999997</v>
       </c>
       <c r="G14">
-        <v>3759.4</v>
+        <v>1224.7190000000001</v>
       </c>
       <c r="H14">
-        <v>10255.200000000001</v>
+        <v>3077.058</v>
       </c>
       <c r="I14">
-        <v>444.2</v>
+        <v>144.74799999999999</v>
       </c>
       <c r="J14">
-        <v>2047.9</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="N14">
-        <v>2953</v>
+        <v>790.04399999999998</v>
       </c>
       <c r="O14">
-        <v>5365.7</v>
+        <v>830.62099999999998</v>
       </c>
       <c r="P14">
-        <v>2047.9</v>
+        <v>4.8959999999999999</v>
       </c>
       <c r="Q14">
-        <v>-1029.9000000000001</v>
+        <v>247.405</v>
       </c>
       <c r="R14">
-        <v>41637</v>
+        <v>37983</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>4889.5</v>
+        <v>2246.4369999999999</v>
       </c>
       <c r="U14">
-        <v>1545.8</v>
+        <v>448.31200000000001</v>
       </c>
       <c r="V14">
-        <v>-1401.9</v>
+        <v>384.45100000000002</v>
       </c>
       <c r="W14">
-        <v>-195.9</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>568.9</v>
+        <v>30.495000000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>82.2</v>
+        <v>-105.68600000000001</v>
       </c>
       <c r="AA14">
-        <v>540.70000000000005</v>
+        <v>110.13500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>426.9</v>
+        <v>78.885000000000005</v>
       </c>
       <c r="D15">
-        <v>3873.8</v>
+        <v>1241.068</v>
       </c>
       <c r="E15">
-        <v>590</v>
+        <v>118.587</v>
       </c>
       <c r="F15">
-        <v>1110.0999999999999</v>
+        <v>732.8</v>
       </c>
       <c r="G15">
-        <v>3579</v>
+        <v>1221.288</v>
       </c>
       <c r="H15">
-        <v>10097</v>
+        <v>3095.6550000000002</v>
       </c>
       <c r="I15">
-        <v>472.6</v>
+        <v>157.87299999999999</v>
       </c>
       <c r="J15">
-        <v>2048</v>
+        <v>3.988</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2733.5</v>
+        <v>694.27200000000005</v>
       </c>
       <c r="O15">
-        <v>5149.8999999999996</v>
+        <v>742.29600000000005</v>
       </c>
       <c r="P15">
-        <v>2048</v>
+        <v>4.7169999999999996</v>
       </c>
       <c r="Q15">
-        <v>-355.5</v>
+        <v>-205.268</v>
       </c>
       <c r="R15">
-        <v>41728</v>
+        <v>38074</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4947.1000000000004</v>
+        <v>2353.3589999999999</v>
       </c>
       <c r="U15">
-        <v>1190.3</v>
+        <v>370.08100000000002</v>
       </c>
       <c r="V15">
-        <v>418.4</v>
+        <v>88.71</v>
       </c>
       <c r="W15">
-        <v>-196.4</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-411.5</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-113.2</v>
+        <v>-222.399</v>
       </c>
       <c r="AA15">
-        <v>427</v>
+        <v>78.885000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>512.70000000000005</v>
+        <v>97.58</v>
       </c>
       <c r="D16">
-        <v>4153.7</v>
+        <v>1318.691</v>
       </c>
       <c r="E16">
-        <v>580.9</v>
+        <v>122.76</v>
       </c>
       <c r="F16">
-        <v>1265.7</v>
+        <v>778.51599999999996</v>
       </c>
       <c r="G16">
-        <v>3356.9</v>
+        <v>1371.691</v>
       </c>
       <c r="H16">
-        <v>10385.299999999999</v>
+        <v>3224.2919999999999</v>
       </c>
       <c r="I16">
-        <v>474.5</v>
+        <v>142.149</v>
       </c>
       <c r="J16">
-        <v>2048.1</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2883.9</v>
+        <v>718.98699999999997</v>
       </c>
       <c r="O16">
-        <v>5314.5</v>
+        <v>774.80700000000002</v>
       </c>
       <c r="P16">
-        <v>2048.1</v>
+        <v>4.5350000000000001</v>
       </c>
       <c r="Q16">
-        <v>-170.9</v>
+        <v>-4.258</v>
       </c>
       <c r="R16">
-        <v>41819</v>
+        <v>38165</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>5070.8</v>
+        <v>2449.4850000000001</v>
       </c>
       <c r="U16">
-        <v>1019.4</v>
+        <v>383.37299999999999</v>
       </c>
       <c r="V16">
-        <v>850.1</v>
+        <v>168.601</v>
       </c>
       <c r="W16">
-        <v>-195.5</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-453.1</v>
+        <v>-11.433</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-256.3</v>
+        <v>-62.100999999999999</v>
       </c>
       <c r="AA16">
-        <v>512.6</v>
+        <v>97.58</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41910</v>
+        <v>38263</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>587.79999999999995</v>
+        <v>102.373</v>
       </c>
       <c r="D17">
-        <v>4180.7</v>
+        <v>1453.297</v>
       </c>
       <c r="E17">
-        <v>631</v>
+        <v>140.226</v>
       </c>
       <c r="F17">
-        <v>1305.5</v>
+        <v>839.00900000000001</v>
       </c>
       <c r="G17">
-        <v>4168.7</v>
+        <v>1350.895</v>
       </c>
       <c r="H17">
-        <v>10752.9</v>
+        <v>3386.5410000000002</v>
       </c>
       <c r="I17">
-        <v>533.70000000000005</v>
+        <v>199.346</v>
       </c>
       <c r="J17">
-        <v>2048.3000000000002</v>
+        <v>3.6179999999999999</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3038.7</v>
+        <v>746.25900000000001</v>
       </c>
       <c r="O17">
-        <v>5479.2</v>
+        <v>914.52800000000002</v>
       </c>
       <c r="P17">
-        <v>2048.3000000000002</v>
+        <v>4.6529999999999996</v>
       </c>
       <c r="Q17">
-        <v>689</v>
+        <v>7.7119999999999997</v>
       </c>
       <c r="R17">
-        <v>41910</v>
+        <v>38263</v>
       </c>
       <c r="S17">
-        <v>191000</v>
+        <v>96700</v>
       </c>
       <c r="T17">
-        <v>5273.7</v>
+        <v>2472.0129999999999</v>
       </c>
       <c r="U17">
-        <v>1708.4</v>
+        <v>145.053</v>
       </c>
       <c r="V17">
-        <v>741.2</v>
+        <v>216.77500000000001</v>
       </c>
       <c r="W17">
-        <v>-195.3</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-327.60000000000002</v>
+        <v>-87.146000000000001</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z17">
-        <v>649.6</v>
+        <v>60.725999999999999</v>
       </c>
       <c r="AA17">
-        <v>587.79999999999995</v>
+        <v>102.373</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>983.1</v>
+        <v>144.71</v>
       </c>
       <c r="D18">
-        <v>4803.2</v>
+        <v>1589.5440000000001</v>
       </c>
       <c r="E18">
-        <v>664.9</v>
+        <v>149.40600000000001</v>
       </c>
       <c r="F18">
-        <v>1496.5</v>
+        <v>941.78899999999999</v>
       </c>
       <c r="G18">
-        <v>4546.1000000000004</v>
+        <v>1652.72</v>
       </c>
       <c r="H18">
-        <v>12351.1</v>
+        <v>3819.8339999999998</v>
       </c>
       <c r="I18">
-        <v>547.70000000000005</v>
+        <v>161.23599999999999</v>
       </c>
       <c r="J18">
-        <v>2048.4</v>
+        <v>3.4329999999999998</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2217,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.183</v>
       </c>
       <c r="N18">
-        <v>3557.5</v>
+        <v>846.39700000000005</v>
       </c>
       <c r="O18">
-        <v>6193.3</v>
+        <v>1018.7</v>
       </c>
       <c r="P18">
-        <v>2087.6999999999998</v>
+        <v>4.1710000000000003</v>
       </c>
       <c r="Q18">
-        <v>148.6</v>
+        <v>169.46700000000001</v>
       </c>
       <c r="R18">
-        <v>42001</v>
+        <v>38354</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>6157.8</v>
+        <v>2801.134</v>
       </c>
       <c r="U18">
-        <v>1857</v>
+        <v>643.548</v>
       </c>
       <c r="V18">
-        <v>1425.2</v>
+        <v>413.66</v>
       </c>
       <c r="W18">
-        <v>-239.5</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-668.3</v>
+        <v>91.24</v>
       </c>
       <c r="Y18">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>51.8</v>
+        <v>-166.62899999999999</v>
       </c>
       <c r="AA18">
-        <v>983.1</v>
+        <v>144.71</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>495.2</v>
+        <v>100.425</v>
       </c>
       <c r="D19">
-        <v>4563.5</v>
+        <v>1518.7159999999999</v>
       </c>
       <c r="E19">
-        <v>655.6</v>
+        <v>151.63800000000001</v>
       </c>
       <c r="F19">
-        <v>1379.1</v>
+        <v>889.976</v>
       </c>
       <c r="G19">
-        <v>4245.3999999999996</v>
+        <v>1412.4570000000001</v>
       </c>
       <c r="H19">
-        <v>12190.7</v>
+        <v>3603.4169999999999</v>
       </c>
       <c r="I19">
-        <v>601.29999999999995</v>
+        <v>181.75399999999999</v>
       </c>
       <c r="J19">
-        <v>2048.5</v>
+        <v>3.246</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3521.2</v>
+        <v>832.65700000000004</v>
       </c>
       <c r="O19">
-        <v>6180</v>
+        <v>999.13300000000004</v>
       </c>
       <c r="P19">
-        <v>2095.1999999999998</v>
+        <v>3.988</v>
       </c>
       <c r="Q19">
-        <v>-106.6</v>
+        <v>-137.37799999999999</v>
       </c>
       <c r="R19">
-        <v>42092</v>
+        <v>38445</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>6010.7</v>
+        <v>2604.2840000000001</v>
       </c>
       <c r="U19">
-        <v>1750.4</v>
+        <v>177.142</v>
       </c>
       <c r="V19">
-        <v>575.70000000000005</v>
+        <v>163.88399999999999</v>
       </c>
       <c r="W19">
-        <v>-240.1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>-307.10000000000002</v>
+        <v>-304.82100000000003</v>
       </c>
       <c r="Y19">
-        <v>43.5</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-15.8</v>
+        <v>155.374</v>
       </c>
       <c r="AA19">
-        <v>494.9</v>
+        <v>100.461</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>626.6</v>
+        <v>125.51300000000001</v>
       </c>
       <c r="D20">
-        <v>4881.2</v>
+        <v>1601.799</v>
       </c>
       <c r="E20">
-        <v>672.7</v>
+        <v>148.982</v>
       </c>
       <c r="F20">
-        <v>1534.9</v>
+        <v>951.96799999999996</v>
       </c>
       <c r="G20">
-        <v>4760.7</v>
+        <v>1140.375</v>
       </c>
       <c r="H20">
-        <v>12868.8</v>
+        <v>3327.9810000000002</v>
       </c>
       <c r="I20">
-        <v>603.20000000000005</v>
+        <v>185.084</v>
       </c>
       <c r="J20">
-        <v>2347.4</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4049.2</v>
+        <v>881.29499999999996</v>
       </c>
       <c r="O20">
-        <v>7010.5</v>
+        <v>1052.124</v>
       </c>
       <c r="P20">
-        <v>2939.8</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="Q20">
-        <v>330.1</v>
+        <v>-47.03</v>
       </c>
       <c r="R20">
-        <v>42183</v>
+        <v>38536</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5858.3</v>
+        <v>2275.857</v>
       </c>
       <c r="U20">
-        <v>2080.5</v>
+        <v>130.11199999999999</v>
       </c>
       <c r="V20">
-        <v>778.3</v>
+        <v>181.78</v>
       </c>
       <c r="W20">
-        <v>-240.1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-21.4</v>
+        <v>-418.75599999999997</v>
       </c>
       <c r="Y20">
-        <v>39.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>-66.7</v>
+        <v>358.95100000000002</v>
       </c>
       <c r="AA20">
-        <v>626.70000000000005</v>
+        <v>125.51300000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42274</v>
+        <v>38627</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>652.5</v>
+        <v>123.72199999999999</v>
       </c>
       <c r="D21">
-        <v>4914.8</v>
+        <v>1659.241</v>
       </c>
       <c r="E21">
-        <v>719</v>
+        <v>190.762</v>
       </c>
       <c r="F21">
-        <v>1553.6</v>
+        <v>980.35500000000002</v>
       </c>
       <c r="G21">
-        <v>3971</v>
+        <v>1209.3340000000001</v>
       </c>
       <c r="H21">
-        <v>12416.3</v>
+        <v>3513.6930000000002</v>
       </c>
       <c r="I21">
-        <v>684.2</v>
+        <v>220.97499999999999</v>
       </c>
       <c r="J21">
-        <v>2347.5</v>
+        <v>2.87</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3648.1</v>
+        <v>1226.9960000000001</v>
       </c>
       <c r="O21">
-        <v>6596.5</v>
+        <v>1412.278</v>
       </c>
       <c r="P21">
-        <v>2347.5</v>
+        <v>283.21800000000002</v>
       </c>
       <c r="Q21">
-        <v>-550.4</v>
+        <v>43.697000000000003</v>
       </c>
       <c r="R21">
-        <v>42274</v>
+        <v>38627</v>
       </c>
       <c r="S21">
-        <v>238000</v>
+        <v>115000</v>
       </c>
       <c r="T21">
-        <v>5819.8</v>
+        <v>2101.415</v>
       </c>
       <c r="U21">
-        <v>1530.1</v>
+        <v>173.809</v>
       </c>
       <c r="V21">
-        <v>969.9</v>
+        <v>163.59100000000001</v>
       </c>
       <c r="W21">
-        <v>-208.9</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-1259.7</v>
+        <v>-41.49</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z21">
-        <v>91.6</v>
+        <v>96.567999999999998</v>
       </c>
       <c r="AA21">
-        <v>652.5</v>
+        <v>123.72199999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42365</v>
+        <v>38718</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>687.6</v>
+        <v>174.15600000000001</v>
       </c>
       <c r="D22">
-        <v>5373.5</v>
+        <v>1934.0920000000001</v>
       </c>
       <c r="E22">
-        <v>764.4</v>
+        <v>197.76499999999999</v>
       </c>
       <c r="F22">
-        <v>1681.1</v>
+        <v>1156.0540000000001</v>
       </c>
       <c r="G22">
-        <v>4727.7</v>
+        <v>1351.9290000000001</v>
       </c>
       <c r="H22">
-        <v>12943.5</v>
+        <v>3711.5050000000001</v>
       </c>
       <c r="I22">
-        <v>648</v>
+        <v>208.59100000000001</v>
       </c>
       <c r="J22">
-        <v>1947.9</v>
+        <v>2.681</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-172</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-0.186</v>
       </c>
       <c r="N22">
-        <v>4420.1000000000004</v>
+        <v>1270.7080000000001</v>
       </c>
       <c r="O22">
-        <v>6960.1</v>
+        <v>1478.713</v>
       </c>
       <c r="P22">
-        <v>2347.6999999999998</v>
+        <v>108.43300000000001</v>
       </c>
       <c r="Q22">
-        <v>733.4</v>
+        <v>77.626000000000005</v>
       </c>
       <c r="R22">
-        <v>42365</v>
+        <v>38718</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>5983.4</v>
+        <v>2232.7919999999999</v>
       </c>
       <c r="U22">
-        <v>2263.5</v>
+        <v>251.435</v>
       </c>
       <c r="V22">
-        <v>1636</v>
+        <v>608.86199999999997</v>
       </c>
       <c r="W22">
-        <v>-297</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-528.70000000000005</v>
+        <v>-238.351</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-29.3</v>
+        <v>-145.655</v>
       </c>
       <c r="AA22">
-        <v>687.6</v>
+        <v>174.15600000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42456</v>
+        <v>38809</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>575</v>
+        <v>127.316</v>
       </c>
       <c r="D23">
-        <v>4993.2</v>
+        <v>1885.8219999999999</v>
       </c>
       <c r="E23">
-        <v>743.7</v>
+        <v>190.631</v>
       </c>
       <c r="F23">
-        <v>1516.5</v>
+        <v>1124.9490000000001</v>
       </c>
       <c r="G23">
-        <v>3883.5</v>
+        <v>1267.414</v>
       </c>
       <c r="H23">
-        <v>12519.4</v>
+        <v>3817.6990000000001</v>
       </c>
       <c r="I23">
-        <v>662.7</v>
+        <v>230.71899999999999</v>
       </c>
       <c r="J23">
-        <v>2447.6</v>
+        <v>2.4910000000000001</v>
       </c>
       <c r="K23">
-        <v>149.1</v>
+        <v>95</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4351.2</v>
+        <v>1187.123</v>
       </c>
       <c r="O23">
-        <v>7423</v>
+        <v>1399.79</v>
       </c>
       <c r="P23">
-        <v>2996.5</v>
+        <v>98.245999999999995</v>
       </c>
       <c r="Q23">
-        <v>-969.1</v>
+        <v>-48.764000000000003</v>
       </c>
       <c r="R23">
-        <v>42456</v>
+        <v>38809</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5096.3999999999996</v>
+        <v>2417.9090000000001</v>
       </c>
       <c r="U23">
-        <v>1294.4000000000001</v>
+        <v>202.67099999999999</v>
       </c>
       <c r="V23">
-        <v>549.5</v>
+        <v>153.13</v>
       </c>
       <c r="W23">
-        <v>-294.8</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-934.3</v>
+        <v>-1.7170000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-267.39999999999998</v>
+        <v>51.725000000000001</v>
       </c>
       <c r="AA23">
-        <v>575.1</v>
+        <v>127.316</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42547</v>
+        <v>38900</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>754.2</v>
+        <v>145.49799999999999</v>
       </c>
       <c r="D24">
-        <v>5238</v>
+        <v>1963.673</v>
       </c>
       <c r="E24">
-        <v>747.3</v>
+        <v>184.941</v>
       </c>
       <c r="F24">
-        <v>1648.3</v>
+        <v>1158.7840000000001</v>
       </c>
       <c r="G24">
-        <v>4856.2</v>
+        <v>1369.672</v>
       </c>
       <c r="H24">
-        <v>13833.2</v>
+        <v>4052.442</v>
       </c>
       <c r="I24">
-        <v>675.7</v>
+        <v>255.15799999999999</v>
       </c>
       <c r="J24">
-        <v>3202.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4245.2</v>
+        <v>1322.78</v>
       </c>
       <c r="O24">
-        <v>8109.2</v>
+        <v>1547.347</v>
       </c>
       <c r="P24">
-        <v>3602.2</v>
+        <v>203.05799999999999</v>
       </c>
       <c r="Q24">
-        <v>847.4</v>
+        <v>13.068</v>
       </c>
       <c r="R24">
-        <v>42547</v>
+        <v>38900</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5724</v>
+        <v>2505.0949999999998</v>
       </c>
       <c r="U24">
-        <v>2141.8000000000002</v>
+        <v>215.739</v>
       </c>
       <c r="V24">
-        <v>1081.4000000000001</v>
+        <v>173.78200000000001</v>
       </c>
       <c r="W24">
-        <v>-293</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>368.9</v>
+        <v>19.888000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-235</v>
+        <v>29.29</v>
       </c>
       <c r="AA24">
-        <v>754.1</v>
+        <v>145.49799999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>800.9</v>
+        <v>117.289</v>
       </c>
       <c r="D25">
-        <v>5711.2</v>
+        <v>2003.355</v>
       </c>
       <c r="E25">
-        <v>768.8</v>
+        <v>224.27099999999999</v>
       </c>
       <c r="F25">
-        <v>1894.7</v>
+        <v>1168.364</v>
       </c>
       <c r="G25">
-        <v>4757.8999999999996</v>
+        <v>1529.788</v>
       </c>
       <c r="H25">
-        <v>14312.5</v>
+        <v>4428.9409999999998</v>
       </c>
       <c r="I25">
-        <v>730.6</v>
+        <v>340.93700000000001</v>
       </c>
       <c r="J25">
-        <v>3185.3</v>
+        <v>1.958</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4546.8</v>
+        <v>1935.62</v>
       </c>
       <c r="O25">
-        <v>8421.7999999999993</v>
+        <v>2189.6959999999999</v>
       </c>
       <c r="P25">
-        <v>3585.2</v>
+        <v>706.82</v>
       </c>
       <c r="Q25">
-        <v>-13</v>
+        <v>96.867000000000004</v>
       </c>
       <c r="R25">
-        <v>42645</v>
+        <v>38991</v>
       </c>
       <c r="S25">
-        <v>254000</v>
+        <v>145800</v>
       </c>
       <c r="T25">
-        <v>5890.7</v>
+        <v>2239.2449999999999</v>
       </c>
       <c r="U25">
-        <v>2128.8000000000002</v>
+        <v>312.60599999999999</v>
       </c>
       <c r="V25">
-        <v>1308.2</v>
+        <v>195.85900000000001</v>
       </c>
       <c r="W25">
-        <v>-293.2</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-655.9</v>
+        <v>64.853999999999999</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Z25">
-        <v>-345.4</v>
+        <v>86.563999999999993</v>
       </c>
       <c r="AA25">
-        <v>800.9</v>
+        <v>117.289</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>751.8</v>
+        <v>205</v>
       </c>
       <c r="D26">
-        <v>5732.9</v>
+        <v>2355.6999999999998</v>
       </c>
       <c r="E26">
-        <v>865.1</v>
+        <v>227.82300000000001</v>
       </c>
       <c r="F26">
-        <v>1799.7</v>
+        <v>1370.9</v>
       </c>
       <c r="G26">
-        <v>4616.2</v>
+        <v>1429.5360000000001</v>
       </c>
       <c r="H26">
-        <v>14017.3</v>
+        <v>4527.634</v>
       </c>
       <c r="I26">
-        <v>662.5</v>
+        <v>275.69099999999997</v>
       </c>
       <c r="J26">
-        <v>3185.7</v>
+        <v>1.746</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-359</v>
       </c>
       <c r="M26">
-        <v>-400</v>
+        <v>-0.2</v>
       </c>
       <c r="N26">
-        <v>4397.3</v>
+        <v>1804.2370000000001</v>
       </c>
       <c r="O26">
-        <v>8214.2000000000007</v>
+        <v>2088.779</v>
       </c>
       <c r="P26">
-        <v>3185.7</v>
+        <v>367.51100000000002</v>
       </c>
       <c r="Q26">
-        <v>-94.2</v>
+        <v>-41.7</v>
       </c>
       <c r="R26">
-        <v>42736</v>
+        <v>39082</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>5803.1</v>
+        <v>2438.855</v>
       </c>
       <c r="U26">
-        <v>2034.6</v>
+        <v>270.87299999999999</v>
       </c>
       <c r="V26">
-        <v>1529.8</v>
+        <v>678.4</v>
       </c>
       <c r="W26">
-        <v>-364</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-1189.0999999999999</v>
+        <v>-355.3</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-155.69999999999999</v>
+        <v>-48.9</v>
       </c>
       <c r="AA26">
-        <v>751.8</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>653.1</v>
+        <v>150.80000000000001</v>
       </c>
       <c r="D27">
-        <v>5294</v>
+        <v>2255.6</v>
       </c>
       <c r="E27">
-        <v>791</v>
+        <v>240.77500000000001</v>
       </c>
       <c r="F27">
-        <v>1566.4</v>
+        <v>1310.9</v>
       </c>
       <c r="G27">
-        <v>4919.3999999999996</v>
+        <v>1384.8620000000001</v>
       </c>
       <c r="H27">
-        <v>14227.9</v>
+        <v>4636.875</v>
       </c>
       <c r="I27">
-        <v>686.9</v>
+        <v>279.95999999999998</v>
       </c>
       <c r="J27">
-        <v>3942.5</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="K27">
-        <v>25</v>
+        <v>847</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4000.1</v>
+        <v>2119.8319999999999</v>
       </c>
       <c r="O27">
-        <v>8616.5</v>
+        <v>2409.5639999999999</v>
       </c>
       <c r="P27">
-        <v>3967.5</v>
+        <v>849.32</v>
       </c>
       <c r="Q27">
-        <v>129.30000000000001</v>
+        <v>-70.7</v>
       </c>
       <c r="R27">
-        <v>42827</v>
+        <v>39173</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>5611.4</v>
+        <v>2227.3110000000001</v>
       </c>
       <c r="U27">
-        <v>2163.9</v>
+        <v>200.179</v>
       </c>
       <c r="V27">
-        <v>461.9</v>
+        <v>59.4</v>
       </c>
       <c r="W27">
-        <v>-363.8</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-181.5</v>
+        <v>93.3</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>174.2</v>
+        <v>12.1</v>
       </c>
       <c r="AA27">
-        <v>652.79999999999995</v>
+        <v>150.80000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>691.2</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="D28">
-        <v>5661.5</v>
+        <v>2359.3000000000002</v>
       </c>
       <c r="E28">
-        <v>791.1</v>
+        <v>250.86600000000001</v>
       </c>
       <c r="F28">
-        <v>1783.5</v>
+        <v>1355.3</v>
       </c>
       <c r="G28">
-        <v>5509.3</v>
+        <v>1467.796</v>
       </c>
       <c r="H28">
-        <v>14522.7</v>
+        <v>4903.9229999999998</v>
       </c>
       <c r="I28">
-        <v>702.2</v>
+        <v>314.58300000000003</v>
       </c>
       <c r="J28">
-        <v>3935.5</v>
+        <v>1.3560000000000001</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>879.97199999999998</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4026.5</v>
+        <v>2223.4180000000001</v>
       </c>
       <c r="O28">
-        <v>8673.2000000000007</v>
+        <v>2532.1080000000002</v>
       </c>
       <c r="P28">
-        <v>3935.5</v>
+        <v>882.1</v>
       </c>
       <c r="Q28">
-        <v>552.29999999999995</v>
+        <v>-27.4</v>
       </c>
       <c r="R28">
-        <v>42918</v>
+        <v>39264</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>5849.5</v>
+        <v>2371.8150000000001</v>
       </c>
       <c r="U28">
-        <v>2716.2</v>
+        <v>172.78899999999999</v>
       </c>
       <c r="V28">
-        <v>1167.3</v>
+        <v>302</v>
       </c>
       <c r="W28">
-        <v>-362</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-521.6</v>
+        <v>-41</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>282.39999999999998</v>
+        <v>-20.5</v>
       </c>
       <c r="AA28">
-        <v>691.6</v>
+        <v>158.30000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>788.6</v>
+        <v>158.5</v>
       </c>
       <c r="D29">
-        <v>5698.3</v>
+        <v>2440.9</v>
       </c>
       <c r="E29">
-        <v>870.4</v>
+        <v>287.89999999999998</v>
       </c>
       <c r="F29">
-        <v>1709.5</v>
+        <v>1375.3</v>
       </c>
       <c r="G29">
-        <v>5283.4</v>
+        <v>1696.5</v>
       </c>
       <c r="H29">
-        <v>14365.6</v>
+        <v>5343.9</v>
       </c>
       <c r="I29">
-        <v>782.5</v>
+        <v>390.8</v>
       </c>
       <c r="J29">
-        <v>3932.6</v>
+        <v>550.1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>710.3</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4220.7</v>
+        <v>2155.6</v>
       </c>
       <c r="O29">
-        <v>8908.6</v>
+        <v>3042.5</v>
       </c>
       <c r="P29">
-        <v>3932.6</v>
+        <v>1264.3</v>
       </c>
       <c r="Q29">
-        <v>-253.9</v>
+        <v>108.5</v>
       </c>
       <c r="R29">
-        <v>43009</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>277000</v>
+        <v>172000</v>
       </c>
       <c r="T29">
-        <v>5457</v>
+        <v>2301.4</v>
       </c>
       <c r="U29">
-        <v>2462.3000000000002</v>
+        <v>281.3</v>
       </c>
       <c r="V29">
-        <v>1092.8</v>
+        <v>291.39999999999998</v>
       </c>
       <c r="W29">
-        <v>-360.6</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-1186.9000000000001</v>
+        <v>131.1</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Z29">
-        <v>228.8</v>
+        <v>-11</v>
       </c>
       <c r="AA29">
-        <v>788.6</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>2250.1999999999998</v>
+        <v>208.1</v>
       </c>
       <c r="D30">
-        <v>6073.7</v>
+        <v>2767.6</v>
       </c>
       <c r="E30">
-        <v>851.8</v>
+        <v>316.2</v>
       </c>
       <c r="F30">
-        <v>1835</v>
+        <v>1581.6</v>
       </c>
       <c r="G30">
-        <v>6883.5</v>
+        <v>1737.6</v>
       </c>
       <c r="H30">
-        <v>18518.5</v>
+        <v>5506.4</v>
       </c>
       <c r="I30">
-        <v>852.1</v>
+        <v>340.8</v>
       </c>
       <c r="J30">
-        <v>4566.5</v>
+        <v>550</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>529.5</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-21910.3</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="N30">
-        <v>6841.1</v>
+        <v>2253.1999999999998</v>
       </c>
       <c r="O30">
-        <v>12759.6</v>
+        <v>3234.6</v>
       </c>
       <c r="P30">
-        <v>4916.3999999999996</v>
+        <v>1080.3</v>
       </c>
       <c r="Q30">
-        <v>1199.0999999999999</v>
+        <v>68</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39446</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>5758.9</v>
+        <v>2271.8000000000002</v>
       </c>
       <c r="U30">
-        <v>3661.4</v>
+        <v>349.3</v>
       </c>
       <c r="V30">
-        <v>1834</v>
+        <v>807.6</v>
       </c>
       <c r="W30">
-        <v>-428.1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-1039.7</v>
+        <v>-467.7</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>302.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="AA30">
-        <v>2250.1999999999998</v>
+        <v>208.1</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>660.1</v>
+        <v>108.7</v>
       </c>
       <c r="D31">
-        <v>6031.8</v>
+        <v>2526</v>
       </c>
       <c r="E31">
-        <v>869.6</v>
+        <v>300.3</v>
       </c>
       <c r="F31">
-        <v>1727.5</v>
+        <v>1419.3</v>
       </c>
       <c r="G31">
-        <v>5657</v>
+        <v>1579.2</v>
       </c>
       <c r="H31">
-        <v>17553.5</v>
+        <v>5534.1</v>
       </c>
       <c r="I31">
-        <v>869.7</v>
+        <v>313.39999999999998</v>
       </c>
       <c r="J31">
-        <v>6185.1</v>
+        <v>549.9</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>701.8</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>5187</v>
+        <v>2079.4</v>
       </c>
       <c r="O31">
-        <v>12835.8</v>
+        <v>3075.3</v>
       </c>
       <c r="P31">
-        <v>6534.8</v>
+        <v>1252.4000000000001</v>
       </c>
       <c r="Q31">
-        <v>-1519.4</v>
+        <v>-45.9</v>
       </c>
       <c r="R31">
-        <v>43191</v>
+        <v>39537</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4717.7</v>
+        <v>2458.8000000000002</v>
       </c>
       <c r="U31">
-        <v>2142</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="V31">
-        <v>454.5</v>
+        <v>-42.5</v>
       </c>
       <c r="W31">
-        <v>-419.8</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-372.8</v>
+        <v>213.8</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>61</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AA31">
-        <v>660.1</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>852.5</v>
+        <v>-6.7</v>
       </c>
       <c r="D32">
-        <v>6310.3</v>
+        <v>2574</v>
       </c>
       <c r="E32">
-        <v>854.8</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="F32">
-        <v>1931.9</v>
+        <v>1410.9</v>
       </c>
       <c r="G32">
-        <v>5583.4</v>
+        <v>1657.3</v>
       </c>
       <c r="H32">
-        <v>17182.099999999999</v>
+        <v>5552.3</v>
       </c>
       <c r="I32">
-        <v>921.1</v>
+        <v>329.4</v>
       </c>
       <c r="J32">
-        <v>6149.1</v>
+        <v>549.79999999999995</v>
       </c>
       <c r="K32">
-        <v>300</v>
+        <v>615.9</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5551.6</v>
+        <v>2061.9</v>
       </c>
       <c r="O32">
-        <v>13185.4</v>
+        <v>3057.5</v>
       </c>
       <c r="P32">
-        <v>6798.9</v>
+        <v>1166.4000000000001</v>
       </c>
       <c r="Q32">
-        <v>-249.9</v>
+        <v>-6.4</v>
       </c>
       <c r="R32">
-        <v>43282</v>
+        <v>39628</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3996.7</v>
+        <v>2494.8000000000002</v>
       </c>
       <c r="U32">
-        <v>1892.1</v>
+        <v>297</v>
       </c>
       <c r="V32">
-        <v>1215.9000000000001</v>
+        <v>313.60000000000002</v>
       </c>
       <c r="W32">
-        <v>-412.3</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-955.2</v>
+        <v>-53.6</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>49.1</v>
+        <v>-13.6</v>
       </c>
       <c r="AA32">
-        <v>852.5</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>755.5</v>
+        <v>5.4</v>
       </c>
       <c r="D33">
-        <v>6303.6</v>
+        <v>2515.4</v>
       </c>
       <c r="E33">
-        <v>693.1</v>
+        <v>329.5</v>
       </c>
       <c r="F33">
-        <v>1822.1</v>
+        <v>1325.9</v>
       </c>
       <c r="G33">
-        <v>12494.2</v>
+        <v>1748</v>
       </c>
       <c r="H33">
-        <v>24156.400000000001</v>
+        <v>5672.6</v>
       </c>
       <c r="I33">
-        <v>1179.3</v>
+        <v>324.89999999999998</v>
       </c>
       <c r="J33">
-        <v>9122.7000000000007</v>
+        <v>549.6</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>5684.2</v>
+        <v>2189.6999999999998</v>
       </c>
       <c r="O33">
-        <v>22980.6</v>
+        <v>3163.4</v>
       </c>
       <c r="P33">
-        <v>9472.6</v>
+        <v>1270</v>
       </c>
       <c r="Q33">
-        <v>6864.2</v>
+        <v>-27.2</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39719</v>
       </c>
       <c r="S33">
-        <v>291000</v>
+        <v>176000</v>
       </c>
       <c r="T33">
-        <v>1175.8</v>
+        <v>2509.1999999999998</v>
       </c>
       <c r="U33">
-        <v>8756.2999999999993</v>
+        <v>269.8</v>
       </c>
       <c r="V33">
-        <v>8433.4</v>
+        <v>180</v>
       </c>
       <c r="W33">
-        <v>-483.2</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-875.1</v>
+        <v>123</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="Z33">
-        <v>-99.9</v>
+        <v>-22</v>
       </c>
       <c r="AA33">
-        <v>755.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>760.6</v>
+        <v>64.3</v>
       </c>
       <c r="D34">
-        <v>6632.7</v>
+        <v>2615.1999999999998</v>
       </c>
       <c r="E34">
-        <v>721.4</v>
+        <v>332</v>
       </c>
       <c r="F34">
-        <v>1870.1</v>
+        <v>1418.4</v>
       </c>
       <c r="G34">
-        <v>7676.3</v>
+        <v>1693.9</v>
       </c>
       <c r="H34">
-        <v>19981.3</v>
+        <v>5530.4</v>
       </c>
       <c r="I34">
-        <v>1100.5</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="J34">
-        <v>9130.7000000000007</v>
+        <v>549.5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>290.2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-16986.3</v>
       </c>
       <c r="M34">
-        <v>-350</v>
+        <v>-0.2</v>
       </c>
       <c r="N34">
-        <v>5427.5</v>
+        <v>1953</v>
       </c>
       <c r="O34">
-        <v>22860.1</v>
+        <v>2927.5</v>
       </c>
       <c r="P34">
-        <v>9130.7000000000007</v>
+        <v>840.3</v>
       </c>
       <c r="Q34">
-        <v>-3994.7</v>
+        <v>87</v>
       </c>
       <c r="R34">
-        <v>43464</v>
+        <v>39810</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>-2878.8</v>
+        <v>2602.9</v>
       </c>
       <c r="U34">
-        <v>4761.6000000000004</v>
+        <v>356.8</v>
       </c>
       <c r="V34">
-        <v>2379</v>
+        <v>693.5</v>
       </c>
       <c r="W34">
-        <v>-446.7</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-5858.6</v>
+        <v>-410.4</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-62.4</v>
+        <v>-10.5</v>
       </c>
       <c r="AA34">
-        <v>760.6</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>663</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>6305.9</v>
+        <v>2333.3000000000002</v>
       </c>
       <c r="E35">
-        <v>703.6</v>
+        <v>309.3</v>
       </c>
       <c r="F35">
-        <v>1739.8</v>
+        <v>1289.8</v>
       </c>
       <c r="G35">
-        <v>4952.3</v>
+        <v>1604.1</v>
       </c>
       <c r="H35">
-        <v>17641.900000000001</v>
+        <v>5281.3</v>
       </c>
       <c r="I35">
-        <v>1096.7</v>
+        <v>266.5</v>
       </c>
       <c r="J35">
-        <v>9141.5</v>
+        <v>549.4</v>
       </c>
       <c r="K35">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>5273.4</v>
+        <v>1685.9</v>
       </c>
       <c r="O35">
-        <v>22677.1</v>
+        <v>2632.5</v>
       </c>
       <c r="P35">
-        <v>9216.5</v>
+        <v>775.9</v>
       </c>
       <c r="Q35">
-        <v>-2706.5</v>
+        <v>-103.6</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39901</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>-5035.2</v>
+        <v>2648.8</v>
       </c>
       <c r="U35">
-        <v>2055.1</v>
+        <v>253.2</v>
       </c>
       <c r="V35">
-        <v>390.4</v>
+        <v>21.9</v>
       </c>
       <c r="W35">
-        <v>-447.8</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-2919.3</v>
+        <v>-54.8</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>185.6</v>
+        <v>-7.2</v>
       </c>
       <c r="AA35">
-        <v>663.2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1372.8</v>
+        <v>151.5</v>
       </c>
       <c r="D36">
-        <v>6823</v>
+        <v>2403.9</v>
       </c>
       <c r="E36">
-        <v>790.6</v>
+        <v>295.2</v>
       </c>
       <c r="F36">
-        <v>1980.2</v>
+        <v>1360.5</v>
       </c>
       <c r="G36">
-        <v>7734.8</v>
+        <v>1717.7</v>
       </c>
       <c r="H36">
-        <v>20894.400000000001</v>
+        <v>5333.1</v>
       </c>
       <c r="I36">
-        <v>1145.4000000000001</v>
+        <v>258.89999999999998</v>
       </c>
       <c r="J36">
-        <v>11159.1</v>
+        <v>549.4</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>5895.8</v>
+        <v>1557.9</v>
       </c>
       <c r="O36">
-        <v>25213.4</v>
+        <v>2499.6</v>
       </c>
       <c r="P36">
-        <v>11159.1</v>
+        <v>549.79999999999995</v>
       </c>
       <c r="Q36">
-        <v>2708.2</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39992</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-4319</v>
+        <v>2833.5</v>
       </c>
       <c r="U36">
-        <v>4763.3</v>
+        <v>292</v>
       </c>
       <c r="V36">
-        <v>1169.4000000000001</v>
+        <v>301.3</v>
       </c>
       <c r="W36">
-        <v>-436.2</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>1355.1</v>
+        <v>-216.3</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>39.700000000000003</v>
+        <v>9.5</v>
       </c>
       <c r="AA36">
-        <v>1372.8</v>
+        <v>151.5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>802.8</v>
+        <v>150</v>
       </c>
       <c r="D37">
-        <v>6747</v>
+        <v>2422.1999999999998</v>
       </c>
       <c r="E37">
-        <v>879.2</v>
+        <v>271</v>
       </c>
       <c r="F37">
-        <v>1898.1</v>
+        <v>1381</v>
       </c>
       <c r="G37">
-        <v>5653.9</v>
+        <v>2035.8</v>
       </c>
       <c r="H37">
-        <v>19219.599999999999</v>
+        <v>5576.8</v>
       </c>
       <c r="I37">
-        <v>1189.7</v>
+        <v>267.10000000000002</v>
       </c>
       <c r="J37">
-        <v>11169.6</v>
+        <v>549.29999999999995</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>6168.7</v>
+        <v>1581</v>
       </c>
       <c r="O37">
-        <v>25450.6</v>
+        <v>2519.9</v>
       </c>
       <c r="P37">
-        <v>11169.6</v>
+        <v>557.29999999999995</v>
       </c>
       <c r="Q37">
-        <v>-2076.6999999999998</v>
+        <v>307.8</v>
       </c>
       <c r="R37">
-        <v>43737</v>
+        <v>40083</v>
       </c>
       <c r="S37">
-        <v>346000</v>
+        <v>142000</v>
       </c>
       <c r="T37">
-        <v>-6231</v>
+        <v>3056.9</v>
       </c>
       <c r="U37">
-        <v>2686.6</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="V37">
-        <v>1108.2</v>
+        <v>372.3</v>
       </c>
       <c r="W37">
-        <v>-430.6</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-2634.1</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z37">
-        <v>4.8</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="AA37">
-        <v>802.8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43828</v>
+        <v>40174</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>885.7</v>
+        <v>241.5</v>
       </c>
       <c r="D38">
-        <v>7097.1</v>
+        <v>2722.7</v>
       </c>
       <c r="E38">
-        <v>908.1</v>
+        <v>263.39999999999998</v>
       </c>
       <c r="F38">
-        <v>2039.2</v>
+        <v>1577</v>
       </c>
       <c r="G38">
-        <v>5899.7</v>
+        <v>2583.9</v>
       </c>
       <c r="H38">
-        <v>27731.3</v>
+        <v>6101.6</v>
       </c>
       <c r="I38">
-        <v>1085.5999999999999</v>
+        <v>241.9</v>
       </c>
       <c r="J38">
-        <v>10653.2</v>
+        <v>549.29999999999995</v>
       </c>
       <c r="K38">
-        <v>497.9</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-6.5</v>
       </c>
       <c r="N38">
-        <v>8675.5</v>
+        <v>1779.2</v>
       </c>
       <c r="O38">
-        <v>34490.400000000001</v>
+        <v>2737.5</v>
       </c>
       <c r="P38">
-        <v>20630.400000000001</v>
+        <v>549.5</v>
       </c>
       <c r="Q38">
-        <v>353.9</v>
+        <v>706.5</v>
       </c>
       <c r="R38">
-        <v>43828</v>
+        <v>40174</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>-6759.1</v>
+        <v>3364.1</v>
       </c>
       <c r="U38">
-        <v>3040.5</v>
+        <v>1306.3</v>
       </c>
       <c r="V38">
-        <v>1836.1</v>
+        <v>768.7</v>
       </c>
       <c r="W38">
-        <v>-484.2</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-1123</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="Y38">
-        <v>7711.7</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>27.9</v>
+        <v>10.3</v>
       </c>
       <c r="AA38">
-        <v>885.7</v>
+        <v>241.5</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43919</v>
+        <v>40265</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>328.4</v>
+        <v>217.3</v>
       </c>
       <c r="D39">
-        <v>5995.7</v>
+        <v>2534.6999999999998</v>
       </c>
       <c r="E39">
-        <v>941</v>
+        <v>299.7</v>
       </c>
       <c r="F39">
-        <v>1276.5999999999999</v>
+        <v>1470.6</v>
       </c>
       <c r="G39">
-        <v>5749.9</v>
+        <v>2490.4</v>
       </c>
       <c r="H39">
-        <v>27478.9</v>
+        <v>6144.7</v>
       </c>
       <c r="I39">
-        <v>997.7</v>
+        <v>286.8</v>
       </c>
       <c r="J39">
-        <v>11725.7</v>
+        <v>549.29999999999995</v>
       </c>
       <c r="K39">
-        <v>1107.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>8265.7999999999993</v>
+        <v>1646.6</v>
       </c>
       <c r="O39">
-        <v>35011.800000000003</v>
+        <v>2590</v>
       </c>
       <c r="P39">
-        <v>22986.1</v>
+        <v>549.4</v>
       </c>
       <c r="Q39">
-        <v>-468.2</v>
+        <v>-220.3</v>
       </c>
       <c r="R39">
-        <v>43919</v>
+        <v>40265</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>-7532.9</v>
+        <v>3554.7</v>
       </c>
       <c r="U39">
-        <v>2572.3000000000002</v>
+        <v>1086</v>
       </c>
       <c r="V39">
-        <v>-1361.3</v>
+        <v>189.1</v>
       </c>
       <c r="W39">
-        <v>-481</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>1273.0999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="Y39">
-        <v>7650.4</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>5</v>
+        <v>-345</v>
       </c>
       <c r="AA39">
-        <v>328.4</v>
+        <v>217.3</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44010</v>
+        <v>40356</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-678.4</v>
+        <v>207.9</v>
       </c>
       <c r="D40">
-        <v>4222.1000000000004</v>
+        <v>2612</v>
       </c>
       <c r="E40">
-        <v>881.1</v>
+        <v>282.5</v>
       </c>
       <c r="F40">
-        <v>200.3</v>
+        <v>1535.8</v>
       </c>
       <c r="G40">
-        <v>7581</v>
+        <v>2610.9</v>
       </c>
       <c r="H40">
-        <v>29140.6</v>
+        <v>6206.9</v>
       </c>
       <c r="I40">
-        <v>860.8</v>
+        <v>288.2</v>
       </c>
       <c r="J40">
-        <v>14717.9</v>
+        <v>549.4</v>
       </c>
       <c r="K40">
-        <v>936.5</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>8002</v>
+        <v>1726.6</v>
       </c>
       <c r="O40">
-        <v>37764.9</v>
+        <v>2672.3</v>
       </c>
       <c r="P40">
-        <v>25794.7</v>
+        <v>549.4</v>
       </c>
       <c r="Q40">
-        <v>1393.6</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="R40">
-        <v>44010</v>
+        <v>40356</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-8624.2999999999993</v>
+        <v>3534.6</v>
       </c>
       <c r="U40">
-        <v>3965.9</v>
+        <v>1125.2</v>
       </c>
       <c r="V40">
-        <v>-367.7</v>
+        <v>417.6</v>
       </c>
       <c r="W40">
-        <v>-479</v>
+        <v>-74.8</v>
       </c>
       <c r="X40">
-        <v>2342.9</v>
+        <v>-209.4</v>
       </c>
       <c r="Y40">
-        <v>7653.6</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-186.8</v>
+        <v>-63.6</v>
       </c>
       <c r="AA40">
-        <v>-678.4</v>
+        <v>207.9</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>392.6</v>
+        <v>278.89999999999998</v>
       </c>
       <c r="D41">
-        <v>6203.1</v>
+        <v>2838</v>
       </c>
       <c r="E41">
-        <v>883.4</v>
+        <v>302.7</v>
       </c>
       <c r="F41">
-        <v>1625.1</v>
+        <v>1665.4</v>
       </c>
       <c r="G41">
-        <v>7806.4</v>
+        <v>2756.4</v>
       </c>
       <c r="H41">
-        <v>29374.5</v>
+        <v>6385.9</v>
       </c>
       <c r="I41">
-        <v>997.9</v>
+        <v>282.60000000000002</v>
       </c>
       <c r="J41">
-        <v>14728.9</v>
+        <v>549.4</v>
       </c>
       <c r="K41">
-        <v>438.8</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>7346.8</v>
+        <v>1779.1</v>
       </c>
       <c r="O41">
-        <v>37173.9</v>
+        <v>2703.6</v>
       </c>
       <c r="P41">
-        <v>25396</v>
+        <v>549.4</v>
       </c>
       <c r="Q41">
-        <v>385</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="R41">
-        <v>44101</v>
+        <v>40454</v>
       </c>
       <c r="S41">
-        <v>349000</v>
+        <v>137000</v>
       </c>
       <c r="T41">
-        <v>-7799.4</v>
+        <v>3682.3</v>
       </c>
       <c r="U41">
-        <v>4350.8999999999996</v>
+        <v>1164</v>
       </c>
       <c r="V41">
-        <v>1490.7</v>
+        <v>329.5</v>
       </c>
       <c r="W41">
-        <v>-479.3</v>
+        <v>-96.2</v>
       </c>
       <c r="X41">
-        <v>-779.7</v>
+        <v>-205.7</v>
       </c>
       <c r="Y41">
-        <v>7724.4</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-29.6</v>
+        <v>61.5</v>
       </c>
       <c r="AA41">
-        <v>392.6</v>
+        <v>278.89999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44192</v>
+        <v>40545</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>346.6</v>
+      </c>
+      <c r="D42">
+        <v>2950.8</v>
+      </c>
+      <c r="E42">
+        <v>316.10000000000002</v>
+      </c>
+      <c r="F42">
+        <v>1758.5</v>
+      </c>
+      <c r="G42">
+        <v>3400.4</v>
+      </c>
+      <c r="H42">
+        <v>6931.1</v>
+      </c>
+      <c r="I42">
+        <v>296.8</v>
+      </c>
+      <c r="J42">
+        <v>549.4</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1956.4</v>
+      </c>
+      <c r="O42">
+        <v>2870.8</v>
+      </c>
+      <c r="P42">
+        <v>549.4</v>
+      </c>
+      <c r="Q42">
+        <v>628</v>
+      </c>
+      <c r="R42">
+        <v>40545</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>4060.3</v>
+      </c>
+      <c r="U42">
+        <v>1792</v>
+      </c>
+      <c r="V42">
+        <v>673.6</v>
+      </c>
+      <c r="W42">
+        <v>-96.9</v>
+      </c>
+      <c r="X42">
+        <v>-9.9</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>92.8</v>
+      </c>
+      <c r="AA42">
+        <v>346.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40636</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>261.5</v>
+      </c>
+      <c r="D43">
+        <v>2785.7</v>
+      </c>
+      <c r="E43">
+        <v>355.7</v>
+      </c>
+      <c r="F43">
+        <v>1614.5</v>
+      </c>
+      <c r="G43">
+        <v>3540.3</v>
+      </c>
+      <c r="H43">
+        <v>7027.6</v>
+      </c>
+      <c r="I43">
+        <v>330.2</v>
+      </c>
+      <c r="J43">
+        <v>549.4</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1794.2</v>
+      </c>
+      <c r="O43">
+        <v>2700.4</v>
+      </c>
+      <c r="P43">
+        <v>549.4</v>
+      </c>
+      <c r="Q43">
+        <v>-146.80000000000001</v>
+      </c>
+      <c r="R43">
+        <v>40636</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>4327.2</v>
+      </c>
+      <c r="U43">
+        <v>1645.2</v>
+      </c>
+      <c r="V43">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="W43">
+        <v>-97.4</v>
+      </c>
+      <c r="X43">
+        <v>-51.4</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>16.8</v>
+      </c>
+      <c r="AA43">
+        <v>261.60000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40727</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>279.3</v>
+      </c>
+      <c r="D44">
+        <v>2932.2</v>
+      </c>
+      <c r="E44">
+        <v>361.5</v>
+      </c>
+      <c r="F44">
+        <v>1694.7</v>
+      </c>
+      <c r="G44">
+        <v>3587</v>
+      </c>
+      <c r="H44">
+        <v>7097.8</v>
+      </c>
+      <c r="I44">
+        <v>339.9</v>
+      </c>
+      <c r="J44">
+        <v>549.4</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1859.4</v>
+      </c>
+      <c r="O44">
+        <v>2756.3</v>
+      </c>
+      <c r="P44">
+        <v>549.4</v>
+      </c>
+      <c r="Q44">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="R44">
+        <v>40727</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>4341.5</v>
+      </c>
+      <c r="U44">
+        <v>1720.8</v>
+      </c>
+      <c r="V44">
+        <v>457.2</v>
+      </c>
+      <c r="W44">
+        <v>-97.8</v>
+      </c>
+      <c r="X44">
+        <v>-306.10000000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>54.4</v>
+      </c>
+      <c r="AA44">
+        <v>279.10000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40818</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>358.3</v>
+      </c>
+      <c r="D45">
+        <v>3031.7</v>
+      </c>
+      <c r="E45">
+        <v>386.5</v>
+      </c>
+      <c r="F45">
+        <v>1717.2</v>
+      </c>
+      <c r="G45">
+        <v>3794.9</v>
+      </c>
+      <c r="H45">
+        <v>7360.4</v>
+      </c>
+      <c r="I45">
+        <v>540</v>
+      </c>
+      <c r="J45">
+        <v>549.5</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2075.8000000000002</v>
+      </c>
+      <c r="O45">
+        <v>2973.1</v>
+      </c>
+      <c r="P45">
+        <v>549.5</v>
+      </c>
+      <c r="Q45">
+        <v>-572.70000000000005</v>
+      </c>
+      <c r="R45">
+        <v>40818</v>
+      </c>
+      <c r="S45">
+        <v>149000</v>
+      </c>
+      <c r="T45">
+        <v>4387.3</v>
+      </c>
+      <c r="U45">
+        <v>1148.0999999999999</v>
+      </c>
+      <c r="V45">
+        <v>485.7</v>
+      </c>
+      <c r="W45">
+        <v>-97.4</v>
+      </c>
+      <c r="X45">
+        <v>-240.6</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-700</v>
+      </c>
+      <c r="AA45">
+        <v>358.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>382.1</v>
+      </c>
+      <c r="D46">
+        <v>3435.9</v>
+      </c>
+      <c r="E46">
+        <v>431</v>
+      </c>
+      <c r="F46">
+        <v>944.4</v>
+      </c>
+      <c r="G46">
+        <v>4237.1000000000004</v>
+      </c>
+      <c r="H46">
+        <v>7835.6</v>
+      </c>
+      <c r="I46">
+        <v>365.9</v>
+      </c>
+      <c r="J46">
+        <v>549.5</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2158.8000000000002</v>
+      </c>
+      <c r="O46">
+        <v>3060.3</v>
+      </c>
+      <c r="P46">
+        <v>549.5</v>
+      </c>
+      <c r="Q46">
+        <v>421.5</v>
+      </c>
+      <c r="R46">
+        <v>40909</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>4775.3</v>
+      </c>
+      <c r="U46">
+        <v>1569.6</v>
+      </c>
+      <c r="V46">
+        <v>466.3</v>
+      </c>
+      <c r="W46">
+        <v>-126.8</v>
+      </c>
+      <c r="X46">
+        <v>-26.6</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>382.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>309.8</v>
+      </c>
+      <c r="D47">
+        <v>3195.9</v>
+      </c>
+      <c r="E47">
+        <v>437.4</v>
+      </c>
+      <c r="F47">
+        <v>1784</v>
+      </c>
+      <c r="G47">
+        <v>4351.5</v>
+      </c>
+      <c r="H47">
+        <v>8006.5</v>
+      </c>
+      <c r="I47">
+        <v>388.3</v>
+      </c>
+      <c r="J47">
+        <v>549.6</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1971.4</v>
+      </c>
+      <c r="O47">
+        <v>2869.8</v>
+      </c>
+      <c r="P47">
+        <v>549.6</v>
+      </c>
+      <c r="Q47">
+        <v>-137.4</v>
+      </c>
+      <c r="R47">
+        <v>41000</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>5136.7</v>
+      </c>
+      <c r="U47">
+        <v>1432.2</v>
+      </c>
+      <c r="V47">
+        <v>109.3</v>
+      </c>
+      <c r="W47">
+        <v>-128.19999999999999</v>
+      </c>
+      <c r="X47">
+        <v>14.7</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-92.7</v>
+      </c>
+      <c r="AA47">
+        <v>309.89999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>333.2</v>
+      </c>
+      <c r="D48">
+        <v>3303.6</v>
+      </c>
+      <c r="E48">
+        <v>433</v>
+      </c>
+      <c r="F48">
+        <v>881.5</v>
+      </c>
+      <c r="G48">
+        <v>4569.6000000000004</v>
+      </c>
+      <c r="H48">
+        <v>8308.9</v>
+      </c>
+      <c r="I48">
+        <v>402.2</v>
+      </c>
+      <c r="J48">
+        <v>549.6</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2018.2</v>
+      </c>
+      <c r="O48">
+        <v>2920.9</v>
+      </c>
+      <c r="P48">
+        <v>549.6</v>
+      </c>
+      <c r="Q48">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="R48">
+        <v>41091</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>5388</v>
+      </c>
+      <c r="U48">
+        <v>1501.3</v>
+      </c>
+      <c r="V48">
+        <v>551.29999999999995</v>
+      </c>
+      <c r="W48">
+        <v>-129</v>
+      </c>
+      <c r="X48">
+        <v>-76.599999999999994</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-191.7</v>
+      </c>
+      <c r="AA48">
+        <v>333.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>358.7</v>
+      </c>
+      <c r="D49">
+        <v>3364.1</v>
+      </c>
+      <c r="E49">
+        <v>485.9</v>
+      </c>
+      <c r="F49">
+        <v>915.1</v>
+      </c>
+      <c r="G49">
+        <v>4199.6000000000004</v>
+      </c>
+      <c r="H49">
+        <v>8219.2000000000007</v>
+      </c>
+      <c r="I49">
+        <v>398.1</v>
+      </c>
+      <c r="J49">
+        <v>549.6</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2209.8000000000002</v>
+      </c>
+      <c r="O49">
+        <v>3104.7</v>
+      </c>
+      <c r="P49">
+        <v>549.6</v>
+      </c>
+      <c r="Q49">
+        <v>-312.7</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>160000</v>
+      </c>
+      <c r="T49">
+        <v>5114.5</v>
+      </c>
+      <c r="U49">
+        <v>1188.5999999999999</v>
+      </c>
+      <c r="V49">
+        <v>623.4</v>
+      </c>
+      <c r="W49">
+        <v>-129</v>
+      </c>
+      <c r="X49">
+        <v>-657</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>173.5</v>
+      </c>
+      <c r="AA49">
+        <v>358.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41273</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>432.2</v>
+      </c>
+      <c r="D50">
+        <v>3793.2</v>
+      </c>
+      <c r="E50">
+        <v>469.2</v>
+      </c>
+      <c r="F50">
+        <v>1083</v>
+      </c>
+      <c r="G50">
+        <v>4416</v>
+      </c>
+      <c r="H50">
+        <v>8490.1</v>
+      </c>
+      <c r="I50">
+        <v>380.8</v>
+      </c>
+      <c r="J50">
+        <v>549.6</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2390.9</v>
+      </c>
+      <c r="O50">
+        <v>3315.1</v>
+      </c>
+      <c r="P50">
+        <v>549.6</v>
+      </c>
+      <c r="Q50">
+        <v>663.5</v>
+      </c>
+      <c r="R50">
+        <v>41273</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>5175</v>
+      </c>
+      <c r="U50">
+        <v>1852.1</v>
+      </c>
+      <c r="V50">
+        <v>1067.3</v>
+      </c>
+      <c r="W50">
+        <v>-156.1</v>
+      </c>
+      <c r="X50">
+        <v>-434</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>276.3</v>
+      </c>
+      <c r="AA50">
+        <v>432.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>390.3</v>
+      </c>
+      <c r="D51">
+        <v>3549.6</v>
+      </c>
+      <c r="E51">
+        <v>520</v>
+      </c>
+      <c r="F51">
+        <v>980.8</v>
+      </c>
+      <c r="G51">
+        <v>3810.2</v>
+      </c>
+      <c r="H51">
+        <v>8502.7999999999993</v>
+      </c>
+      <c r="I51">
+        <v>355.7</v>
+      </c>
+      <c r="J51">
+        <v>549.6</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>2269.6999999999998</v>
+      </c>
+      <c r="O51">
+        <v>3175.3</v>
+      </c>
+      <c r="P51">
+        <v>549.6</v>
+      </c>
+      <c r="Q51">
+        <v>-628.9</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>5327.5</v>
+      </c>
+      <c r="U51">
+        <v>1223.2</v>
+      </c>
+      <c r="V51">
+        <v>305.2</v>
+      </c>
+      <c r="W51">
+        <v>-157.4</v>
+      </c>
+      <c r="X51">
+        <v>-284.5</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>173.7</v>
+      </c>
+      <c r="AA51">
+        <v>390.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>417.8</v>
+      </c>
+      <c r="D52">
+        <v>3735.3</v>
+      </c>
+      <c r="E52">
+        <v>506.8</v>
+      </c>
+      <c r="F52">
+        <v>1053.5999999999999</v>
+      </c>
+      <c r="G52">
+        <v>4239.7</v>
+      </c>
+      <c r="H52">
+        <v>9062.4</v>
+      </c>
+      <c r="I52">
+        <v>415.2</v>
+      </c>
+      <c r="J52">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2424.4</v>
+      </c>
+      <c r="O52">
+        <v>3314.8</v>
+      </c>
+      <c r="P52">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="Q52">
+        <v>207.6</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>5747.6</v>
+      </c>
+      <c r="U52">
+        <v>1430.8</v>
+      </c>
+      <c r="V52">
+        <v>665.3</v>
+      </c>
+      <c r="W52">
+        <v>-157.4</v>
+      </c>
+      <c r="X52">
+        <v>-65.3</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-92.3</v>
+      </c>
+      <c r="AA52">
+        <v>417.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41546</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-1232</v>
+      </c>
+      <c r="D53">
+        <v>3788.7</v>
+      </c>
+      <c r="E53">
+        <v>561.4</v>
+      </c>
+      <c r="F53">
+        <v>1081.0999999999999</v>
+      </c>
+      <c r="G53">
+        <v>5471.4</v>
+      </c>
+      <c r="H53">
+        <v>11516.7</v>
+      </c>
+      <c r="I53">
+        <v>491.7</v>
+      </c>
+      <c r="J53">
+        <v>1299.4000000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>5377.3</v>
+      </c>
+      <c r="O53">
+        <v>7034.4</v>
+      </c>
+      <c r="P53">
+        <v>1299.4000000000001</v>
+      </c>
+      <c r="Q53">
+        <v>1144.9000000000001</v>
+      </c>
+      <c r="R53">
+        <v>41546</v>
+      </c>
+      <c r="S53">
+        <v>182000</v>
+      </c>
+      <c r="T53">
+        <v>4482.3</v>
+      </c>
+      <c r="U53">
+        <v>2575.6999999999998</v>
+      </c>
+      <c r="V53">
+        <v>870.5</v>
+      </c>
+      <c r="W53">
+        <v>-158</v>
+      </c>
+      <c r="X53">
+        <v>675.6</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA53">
+        <v>-1232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="D54">
+        <v>4239.6000000000004</v>
+      </c>
+      <c r="E54">
+        <v>589.79999999999995</v>
+      </c>
+      <c r="F54">
+        <v>1269.4000000000001</v>
+      </c>
+      <c r="G54">
+        <v>3759.4</v>
+      </c>
+      <c r="H54">
+        <v>10255.200000000001</v>
+      </c>
+      <c r="I54">
+        <v>444.2</v>
+      </c>
+      <c r="J54">
+        <v>2047.9</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>2953</v>
+      </c>
+      <c r="O54">
+        <v>5365.7</v>
+      </c>
+      <c r="P54">
+        <v>2047.9</v>
+      </c>
+      <c r="Q54">
+        <v>-1029.9000000000001</v>
+      </c>
+      <c r="R54">
+        <v>41637</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>4889.5</v>
+      </c>
+      <c r="U54">
+        <v>1545.8</v>
+      </c>
+      <c r="V54">
+        <v>-1401.9</v>
+      </c>
+      <c r="W54">
+        <v>-195.9</v>
+      </c>
+      <c r="X54">
+        <v>568.9</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>82.2</v>
+      </c>
+      <c r="AA54">
+        <v>540.70000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>426.9</v>
+      </c>
+      <c r="D55">
+        <v>3873.8</v>
+      </c>
+      <c r="E55">
+        <v>590</v>
+      </c>
+      <c r="F55">
+        <v>1110.0999999999999</v>
+      </c>
+      <c r="G55">
+        <v>3579</v>
+      </c>
+      <c r="H55">
+        <v>10097</v>
+      </c>
+      <c r="I55">
+        <v>472.6</v>
+      </c>
+      <c r="J55">
+        <v>2048</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2733.5</v>
+      </c>
+      <c r="O55">
+        <v>5149.8999999999996</v>
+      </c>
+      <c r="P55">
+        <v>2048</v>
+      </c>
+      <c r="Q55">
+        <v>-355.5</v>
+      </c>
+      <c r="R55">
+        <v>41728</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4947.1000000000004</v>
+      </c>
+      <c r="U55">
+        <v>1190.3</v>
+      </c>
+      <c r="V55">
+        <v>418.4</v>
+      </c>
+      <c r="W55">
+        <v>-196.4</v>
+      </c>
+      <c r="X55">
+        <v>-411.5</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-113.2</v>
+      </c>
+      <c r="AA55">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41819</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>512.70000000000005</v>
+      </c>
+      <c r="D56">
+        <v>4153.7</v>
+      </c>
+      <c r="E56">
+        <v>580.9</v>
+      </c>
+      <c r="F56">
+        <v>1265.7</v>
+      </c>
+      <c r="G56">
+        <v>3356.9</v>
+      </c>
+      <c r="H56">
+        <v>10385.299999999999</v>
+      </c>
+      <c r="I56">
+        <v>474.5</v>
+      </c>
+      <c r="J56">
+        <v>2048.1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2883.9</v>
+      </c>
+      <c r="O56">
+        <v>5314.5</v>
+      </c>
+      <c r="P56">
+        <v>2048.1</v>
+      </c>
+      <c r="Q56">
+        <v>-170.9</v>
+      </c>
+      <c r="R56">
+        <v>41819</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>5070.8</v>
+      </c>
+      <c r="U56">
+        <v>1019.4</v>
+      </c>
+      <c r="V56">
+        <v>850.1</v>
+      </c>
+      <c r="W56">
+        <v>-195.5</v>
+      </c>
+      <c r="X56">
+        <v>-453.1</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-256.3</v>
+      </c>
+      <c r="AA56">
+        <v>512.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41910</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>587.79999999999995</v>
+      </c>
+      <c r="D57">
+        <v>4180.7</v>
+      </c>
+      <c r="E57">
+        <v>631</v>
+      </c>
+      <c r="F57">
+        <v>1305.5</v>
+      </c>
+      <c r="G57">
+        <v>4168.7</v>
+      </c>
+      <c r="H57">
+        <v>10752.9</v>
+      </c>
+      <c r="I57">
+        <v>533.70000000000005</v>
+      </c>
+      <c r="J57">
+        <v>2048.3000000000002</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3038.7</v>
+      </c>
+      <c r="O57">
+        <v>5479.2</v>
+      </c>
+      <c r="P57">
+        <v>2048.3000000000002</v>
+      </c>
+      <c r="Q57">
+        <v>689</v>
+      </c>
+      <c r="R57">
+        <v>41910</v>
+      </c>
+      <c r="S57">
+        <v>191000</v>
+      </c>
+      <c r="T57">
+        <v>5273.7</v>
+      </c>
+      <c r="U57">
+        <v>1708.4</v>
+      </c>
+      <c r="V57">
+        <v>741.2</v>
+      </c>
+      <c r="W57">
+        <v>-195.3</v>
+      </c>
+      <c r="X57">
+        <v>-327.60000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>649.6</v>
+      </c>
+      <c r="AA57">
+        <v>587.79999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>983.1</v>
+      </c>
+      <c r="D58">
+        <v>4803.2</v>
+      </c>
+      <c r="E58">
+        <v>664.9</v>
+      </c>
+      <c r="F58">
+        <v>1496.5</v>
+      </c>
+      <c r="G58">
+        <v>4546.1000000000004</v>
+      </c>
+      <c r="H58">
+        <v>12351.1</v>
+      </c>
+      <c r="I58">
+        <v>547.70000000000005</v>
+      </c>
+      <c r="J58">
+        <v>2048.4</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3557.5</v>
+      </c>
+      <c r="O58">
+        <v>6193.3</v>
+      </c>
+      <c r="P58">
+        <v>2087.6999999999998</v>
+      </c>
+      <c r="Q58">
+        <v>148.6</v>
+      </c>
+      <c r="R58">
+        <v>42001</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>6157.8</v>
+      </c>
+      <c r="U58">
+        <v>1857</v>
+      </c>
+      <c r="V58">
+        <v>1425.2</v>
+      </c>
+      <c r="W58">
+        <v>-239.5</v>
+      </c>
+      <c r="X58">
+        <v>-668.3</v>
+      </c>
+      <c r="Y58">
+        <v>36.4</v>
+      </c>
+      <c r="Z58">
+        <v>51.8</v>
+      </c>
+      <c r="AA58">
+        <v>983.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42092</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>495.2</v>
+      </c>
+      <c r="D59">
+        <v>4563.5</v>
+      </c>
+      <c r="E59">
+        <v>655.6</v>
+      </c>
+      <c r="F59">
+        <v>1379.1</v>
+      </c>
+      <c r="G59">
+        <v>4245.3999999999996</v>
+      </c>
+      <c r="H59">
+        <v>12190.7</v>
+      </c>
+      <c r="I59">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="J59">
+        <v>2048.5</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3521.2</v>
+      </c>
+      <c r="O59">
+        <v>6180</v>
+      </c>
+      <c r="P59">
+        <v>2095.1999999999998</v>
+      </c>
+      <c r="Q59">
+        <v>-106.6</v>
+      </c>
+      <c r="R59">
+        <v>42092</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>6010.7</v>
+      </c>
+      <c r="U59">
+        <v>1750.4</v>
+      </c>
+      <c r="V59">
+        <v>575.70000000000005</v>
+      </c>
+      <c r="W59">
+        <v>-240.1</v>
+      </c>
+      <c r="X59">
+        <v>-307.10000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>43.5</v>
+      </c>
+      <c r="Z59">
+        <v>-15.8</v>
+      </c>
+      <c r="AA59">
+        <v>494.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>626.6</v>
+      </c>
+      <c r="D60">
+        <v>4881.2</v>
+      </c>
+      <c r="E60">
+        <v>672.7</v>
+      </c>
+      <c r="F60">
+        <v>1534.9</v>
+      </c>
+      <c r="G60">
+        <v>4760.7</v>
+      </c>
+      <c r="H60">
+        <v>12868.8</v>
+      </c>
+      <c r="I60">
+        <v>603.20000000000005</v>
+      </c>
+      <c r="J60">
+        <v>2347.4</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4049.2</v>
+      </c>
+      <c r="O60">
+        <v>7010.5</v>
+      </c>
+      <c r="P60">
+        <v>2939.8</v>
+      </c>
+      <c r="Q60">
+        <v>330.1</v>
+      </c>
+      <c r="R60">
+        <v>42183</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>5858.3</v>
+      </c>
+      <c r="U60">
+        <v>2080.5</v>
+      </c>
+      <c r="V60">
+        <v>778.3</v>
+      </c>
+      <c r="W60">
+        <v>-240.1</v>
+      </c>
+      <c r="X60">
+        <v>-21.4</v>
+      </c>
+      <c r="Y60">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="Z60">
+        <v>-66.7</v>
+      </c>
+      <c r="AA60">
+        <v>626.70000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42274</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>652.5</v>
+      </c>
+      <c r="D61">
+        <v>4914.8</v>
+      </c>
+      <c r="E61">
+        <v>719</v>
+      </c>
+      <c r="F61">
+        <v>1553.6</v>
+      </c>
+      <c r="G61">
+        <v>3971</v>
+      </c>
+      <c r="H61">
+        <v>12416.3</v>
+      </c>
+      <c r="I61">
+        <v>684.2</v>
+      </c>
+      <c r="J61">
+        <v>2347.5</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3648.1</v>
+      </c>
+      <c r="O61">
+        <v>6596.5</v>
+      </c>
+      <c r="P61">
+        <v>2347.5</v>
+      </c>
+      <c r="Q61">
+        <v>-550.4</v>
+      </c>
+      <c r="R61">
+        <v>42274</v>
+      </c>
+      <c r="S61">
+        <v>238000</v>
+      </c>
+      <c r="T61">
+        <v>5819.8</v>
+      </c>
+      <c r="U61">
+        <v>1530.1</v>
+      </c>
+      <c r="V61">
+        <v>969.9</v>
+      </c>
+      <c r="W61">
+        <v>-208.9</v>
+      </c>
+      <c r="X61">
+        <v>-1259.7</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>91.6</v>
+      </c>
+      <c r="AA61">
+        <v>652.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42365</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>687.6</v>
+      </c>
+      <c r="D62">
+        <v>5373.5</v>
+      </c>
+      <c r="E62">
+        <v>764.4</v>
+      </c>
+      <c r="F62">
+        <v>1681.1</v>
+      </c>
+      <c r="G62">
+        <v>4727.7</v>
+      </c>
+      <c r="H62">
+        <v>12943.5</v>
+      </c>
+      <c r="I62">
+        <v>648</v>
+      </c>
+      <c r="J62">
+        <v>1947.9</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4420.1000000000004</v>
+      </c>
+      <c r="O62">
+        <v>6960.1</v>
+      </c>
+      <c r="P62">
+        <v>2347.6999999999998</v>
+      </c>
+      <c r="Q62">
+        <v>733.4</v>
+      </c>
+      <c r="R62">
+        <v>42365</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>5983.4</v>
+      </c>
+      <c r="U62">
+        <v>2263.5</v>
+      </c>
+      <c r="V62">
+        <v>1636</v>
+      </c>
+      <c r="W62">
+        <v>-297</v>
+      </c>
+      <c r="X62">
+        <v>-528.70000000000005</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-29.3</v>
+      </c>
+      <c r="AA62">
+        <v>687.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42456</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>575</v>
+      </c>
+      <c r="D63">
+        <v>4993.2</v>
+      </c>
+      <c r="E63">
+        <v>743.7</v>
+      </c>
+      <c r="F63">
+        <v>1516.5</v>
+      </c>
+      <c r="G63">
+        <v>3883.5</v>
+      </c>
+      <c r="H63">
+        <v>12519.4</v>
+      </c>
+      <c r="I63">
+        <v>662.7</v>
+      </c>
+      <c r="J63">
+        <v>2447.6</v>
+      </c>
+      <c r="K63">
+        <v>149.1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>4351.2</v>
+      </c>
+      <c r="O63">
+        <v>7423</v>
+      </c>
+      <c r="P63">
+        <v>2996.5</v>
+      </c>
+      <c r="Q63">
+        <v>-969.1</v>
+      </c>
+      <c r="R63">
+        <v>42456</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5096.3999999999996</v>
+      </c>
+      <c r="U63">
+        <v>1294.4000000000001</v>
+      </c>
+      <c r="V63">
+        <v>549.5</v>
+      </c>
+      <c r="W63">
+        <v>-294.8</v>
+      </c>
+      <c r="X63">
+        <v>-934.3</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-267.39999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>575.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42547</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>754.2</v>
+      </c>
+      <c r="D64">
+        <v>5238</v>
+      </c>
+      <c r="E64">
+        <v>747.3</v>
+      </c>
+      <c r="F64">
+        <v>1648.3</v>
+      </c>
+      <c r="G64">
+        <v>4856.2</v>
+      </c>
+      <c r="H64">
+        <v>13833.2</v>
+      </c>
+      <c r="I64">
+        <v>675.7</v>
+      </c>
+      <c r="J64">
+        <v>3202.4</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4245.2</v>
+      </c>
+      <c r="O64">
+        <v>8109.2</v>
+      </c>
+      <c r="P64">
+        <v>3602.2</v>
+      </c>
+      <c r="Q64">
+        <v>847.4</v>
+      </c>
+      <c r="R64">
+        <v>42547</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5724</v>
+      </c>
+      <c r="U64">
+        <v>2141.8000000000002</v>
+      </c>
+      <c r="V64">
+        <v>1081.4000000000001</v>
+      </c>
+      <c r="W64">
+        <v>-293</v>
+      </c>
+      <c r="X64">
+        <v>368.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-235</v>
+      </c>
+      <c r="AA64">
+        <v>754.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>800.9</v>
+      </c>
+      <c r="D65">
+        <v>5711.2</v>
+      </c>
+      <c r="E65">
+        <v>768.8</v>
+      </c>
+      <c r="F65">
+        <v>1894.7</v>
+      </c>
+      <c r="G65">
+        <v>4757.8999999999996</v>
+      </c>
+      <c r="H65">
+        <v>14312.5</v>
+      </c>
+      <c r="I65">
+        <v>730.6</v>
+      </c>
+      <c r="J65">
+        <v>3185.3</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4546.8</v>
+      </c>
+      <c r="O65">
+        <v>8421.7999999999993</v>
+      </c>
+      <c r="P65">
+        <v>3585.2</v>
+      </c>
+      <c r="Q65">
+        <v>-13</v>
+      </c>
+      <c r="R65">
+        <v>42645</v>
+      </c>
+      <c r="S65">
+        <v>254000</v>
+      </c>
+      <c r="T65">
+        <v>5890.7</v>
+      </c>
+      <c r="U65">
+        <v>2128.8000000000002</v>
+      </c>
+      <c r="V65">
+        <v>1308.2</v>
+      </c>
+      <c r="W65">
+        <v>-293.2</v>
+      </c>
+      <c r="X65">
+        <v>-655.9</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-345.4</v>
+      </c>
+      <c r="AA65">
+        <v>800.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>751.8</v>
+      </c>
+      <c r="D66">
+        <v>5732.9</v>
+      </c>
+      <c r="E66">
+        <v>865.1</v>
+      </c>
+      <c r="F66">
+        <v>1799.7</v>
+      </c>
+      <c r="G66">
+        <v>4616.2</v>
+      </c>
+      <c r="H66">
+        <v>14017.3</v>
+      </c>
+      <c r="I66">
+        <v>662.5</v>
+      </c>
+      <c r="J66">
+        <v>3185.7</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-400</v>
+      </c>
+      <c r="N66">
+        <v>4397.3</v>
+      </c>
+      <c r="O66">
+        <v>8214.2000000000007</v>
+      </c>
+      <c r="P66">
+        <v>3185.7</v>
+      </c>
+      <c r="Q66">
+        <v>-94.2</v>
+      </c>
+      <c r="R66">
+        <v>42736</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>5803.1</v>
+      </c>
+      <c r="U66">
+        <v>2034.6</v>
+      </c>
+      <c r="V66">
+        <v>1529.8</v>
+      </c>
+      <c r="W66">
+        <v>-364</v>
+      </c>
+      <c r="X66">
+        <v>-1189.0999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-155.69999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>751.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42827</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>653.1</v>
+      </c>
+      <c r="D67">
+        <v>5294</v>
+      </c>
+      <c r="E67">
+        <v>791</v>
+      </c>
+      <c r="F67">
+        <v>1566.4</v>
+      </c>
+      <c r="G67">
+        <v>4919.3999999999996</v>
+      </c>
+      <c r="H67">
+        <v>14227.9</v>
+      </c>
+      <c r="I67">
+        <v>686.9</v>
+      </c>
+      <c r="J67">
+        <v>3942.5</v>
+      </c>
+      <c r="K67">
+        <v>25</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>4000.1</v>
+      </c>
+      <c r="O67">
+        <v>8616.5</v>
+      </c>
+      <c r="P67">
+        <v>3967.5</v>
+      </c>
+      <c r="Q67">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42827</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>5611.4</v>
+      </c>
+      <c r="U67">
+        <v>2163.9</v>
+      </c>
+      <c r="V67">
+        <v>461.9</v>
+      </c>
+      <c r="W67">
+        <v>-363.8</v>
+      </c>
+      <c r="X67">
+        <v>-181.5</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>174.2</v>
+      </c>
+      <c r="AA67">
+        <v>652.79999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42918</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>691.2</v>
+      </c>
+      <c r="D68">
+        <v>5661.5</v>
+      </c>
+      <c r="E68">
+        <v>791.1</v>
+      </c>
+      <c r="F68">
+        <v>1783.5</v>
+      </c>
+      <c r="G68">
+        <v>5509.3</v>
+      </c>
+      <c r="H68">
+        <v>14522.7</v>
+      </c>
+      <c r="I68">
+        <v>702.2</v>
+      </c>
+      <c r="J68">
+        <v>3935.5</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4026.5</v>
+      </c>
+      <c r="O68">
+        <v>8673.2000000000007</v>
+      </c>
+      <c r="P68">
+        <v>3935.5</v>
+      </c>
+      <c r="Q68">
+        <v>552.29999999999995</v>
+      </c>
+      <c r="R68">
+        <v>42918</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>5849.5</v>
+      </c>
+      <c r="U68">
+        <v>2716.2</v>
+      </c>
+      <c r="V68">
+        <v>1167.3</v>
+      </c>
+      <c r="W68">
+        <v>-362</v>
+      </c>
+      <c r="X68">
+        <v>-521.6</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="AA68">
+        <v>691.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>788.6</v>
+      </c>
+      <c r="D69">
+        <v>5698.3</v>
+      </c>
+      <c r="E69">
+        <v>870.4</v>
+      </c>
+      <c r="F69">
+        <v>1709.5</v>
+      </c>
+      <c r="G69">
+        <v>5283.4</v>
+      </c>
+      <c r="H69">
+        <v>14365.6</v>
+      </c>
+      <c r="I69">
+        <v>782.5</v>
+      </c>
+      <c r="J69">
+        <v>3932.6</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4220.7</v>
+      </c>
+      <c r="O69">
+        <v>8908.6</v>
+      </c>
+      <c r="P69">
+        <v>3932.6</v>
+      </c>
+      <c r="Q69">
+        <v>-253.9</v>
+      </c>
+      <c r="R69">
+        <v>43009</v>
+      </c>
+      <c r="S69">
+        <v>277000</v>
+      </c>
+      <c r="T69">
+        <v>5457</v>
+      </c>
+      <c r="U69">
+        <v>2462.3000000000002</v>
+      </c>
+      <c r="V69">
+        <v>1092.8</v>
+      </c>
+      <c r="W69">
+        <v>-360.6</v>
+      </c>
+      <c r="X69">
+        <v>-1186.9000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>228.8</v>
+      </c>
+      <c r="AA69">
+        <v>788.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>2250.1999999999998</v>
+      </c>
+      <c r="D70">
+        <v>6073.7</v>
+      </c>
+      <c r="E70">
+        <v>851.8</v>
+      </c>
+      <c r="F70">
+        <v>1835</v>
+      </c>
+      <c r="G70">
+        <v>6883.5</v>
+      </c>
+      <c r="H70">
+        <v>18518.5</v>
+      </c>
+      <c r="I70">
+        <v>852.1</v>
+      </c>
+      <c r="J70">
+        <v>4566.5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>6841.1</v>
+      </c>
+      <c r="O70">
+        <v>12759.6</v>
+      </c>
+      <c r="P70">
+        <v>4916.3999999999996</v>
+      </c>
+      <c r="Q70">
+        <v>1199.0999999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>5758.9</v>
+      </c>
+      <c r="U70">
+        <v>3661.4</v>
+      </c>
+      <c r="V70">
+        <v>1834</v>
+      </c>
+      <c r="W70">
+        <v>-428.1</v>
+      </c>
+      <c r="X70">
+        <v>-1039.7</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>302.2</v>
+      </c>
+      <c r="AA70">
+        <v>2250.1999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>660.1</v>
+      </c>
+      <c r="D71">
+        <v>6031.8</v>
+      </c>
+      <c r="E71">
+        <v>869.6</v>
+      </c>
+      <c r="F71">
+        <v>1727.5</v>
+      </c>
+      <c r="G71">
+        <v>5657</v>
+      </c>
+      <c r="H71">
+        <v>17553.5</v>
+      </c>
+      <c r="I71">
+        <v>869.7</v>
+      </c>
+      <c r="J71">
+        <v>6185.1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>5187</v>
+      </c>
+      <c r="O71">
+        <v>12835.8</v>
+      </c>
+      <c r="P71">
+        <v>6534.8</v>
+      </c>
+      <c r="Q71">
+        <v>-1519.4</v>
+      </c>
+      <c r="R71">
+        <v>43191</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4717.7</v>
+      </c>
+      <c r="U71">
+        <v>2142</v>
+      </c>
+      <c r="V71">
+        <v>454.5</v>
+      </c>
+      <c r="W71">
+        <v>-419.8</v>
+      </c>
+      <c r="X71">
+        <v>-372.8</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>61</v>
+      </c>
+      <c r="AA71">
+        <v>660.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>852.5</v>
+      </c>
+      <c r="D72">
+        <v>6310.3</v>
+      </c>
+      <c r="E72">
+        <v>854.8</v>
+      </c>
+      <c r="F72">
+        <v>1931.9</v>
+      </c>
+      <c r="G72">
+        <v>5583.4</v>
+      </c>
+      <c r="H72">
+        <v>17182.099999999999</v>
+      </c>
+      <c r="I72">
+        <v>921.1</v>
+      </c>
+      <c r="J72">
+        <v>6149.1</v>
+      </c>
+      <c r="K72">
+        <v>300</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5551.6</v>
+      </c>
+      <c r="O72">
+        <v>13185.4</v>
+      </c>
+      <c r="P72">
+        <v>6798.9</v>
+      </c>
+      <c r="Q72">
+        <v>-249.9</v>
+      </c>
+      <c r="R72">
+        <v>43282</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3996.7</v>
+      </c>
+      <c r="U72">
+        <v>1892.1</v>
+      </c>
+      <c r="V72">
+        <v>1215.9000000000001</v>
+      </c>
+      <c r="W72">
+        <v>-412.3</v>
+      </c>
+      <c r="X72">
+        <v>-955.2</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>49.1</v>
+      </c>
+      <c r="AA72">
+        <v>852.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>755.5</v>
+      </c>
+      <c r="D73">
+        <v>6303.6</v>
+      </c>
+      <c r="E73">
+        <v>693.1</v>
+      </c>
+      <c r="F73">
+        <v>1822.1</v>
+      </c>
+      <c r="G73">
+        <v>12494.2</v>
+      </c>
+      <c r="H73">
+        <v>24156.400000000001</v>
+      </c>
+      <c r="I73">
+        <v>1179.3</v>
+      </c>
+      <c r="J73">
+        <v>9122.7000000000007</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>5684.2</v>
+      </c>
+      <c r="O73">
+        <v>22980.6</v>
+      </c>
+      <c r="P73">
+        <v>9472.6</v>
+      </c>
+      <c r="Q73">
+        <v>6864.2</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>291000</v>
+      </c>
+      <c r="T73">
+        <v>1175.8</v>
+      </c>
+      <c r="U73">
+        <v>8756.2999999999993</v>
+      </c>
+      <c r="V73">
+        <v>8433.4</v>
+      </c>
+      <c r="W73">
+        <v>-483.2</v>
+      </c>
+      <c r="X73">
+        <v>-875.1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-99.9</v>
+      </c>
+      <c r="AA73">
+        <v>755.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43464</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>760.6</v>
+      </c>
+      <c r="D74">
+        <v>6632.7</v>
+      </c>
+      <c r="E74">
+        <v>721.4</v>
+      </c>
+      <c r="F74">
+        <v>1870.1</v>
+      </c>
+      <c r="G74">
+        <v>7676.3</v>
+      </c>
+      <c r="H74">
+        <v>19981.3</v>
+      </c>
+      <c r="I74">
+        <v>1100.5</v>
+      </c>
+      <c r="J74">
+        <v>9130.7000000000007</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-350</v>
+      </c>
+      <c r="N74">
+        <v>5427.5</v>
+      </c>
+      <c r="O74">
+        <v>22860.1</v>
+      </c>
+      <c r="P74">
+        <v>9130.7000000000007</v>
+      </c>
+      <c r="Q74">
+        <v>-3994.7</v>
+      </c>
+      <c r="R74">
+        <v>43464</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>-2878.8</v>
+      </c>
+      <c r="U74">
+        <v>4761.6000000000004</v>
+      </c>
+      <c r="V74">
+        <v>2379</v>
+      </c>
+      <c r="W74">
+        <v>-446.7</v>
+      </c>
+      <c r="X74">
+        <v>-5858.6</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-62.4</v>
+      </c>
+      <c r="AA74">
+        <v>760.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>663</v>
+      </c>
+      <c r="D75">
+        <v>6305.9</v>
+      </c>
+      <c r="E75">
+        <v>703.6</v>
+      </c>
+      <c r="F75">
+        <v>1739.8</v>
+      </c>
+      <c r="G75">
+        <v>4952.3</v>
+      </c>
+      <c r="H75">
+        <v>17641.900000000001</v>
+      </c>
+      <c r="I75">
+        <v>1096.7</v>
+      </c>
+      <c r="J75">
+        <v>9141.5</v>
+      </c>
+      <c r="K75">
+        <v>75</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>5273.4</v>
+      </c>
+      <c r="O75">
+        <v>22677.1</v>
+      </c>
+      <c r="P75">
+        <v>9216.5</v>
+      </c>
+      <c r="Q75">
+        <v>-2706.5</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-5035.2</v>
+      </c>
+      <c r="U75">
+        <v>2055.1</v>
+      </c>
+      <c r="V75">
+        <v>390.4</v>
+      </c>
+      <c r="W75">
+        <v>-447.8</v>
+      </c>
+      <c r="X75">
+        <v>-2919.3</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>185.6</v>
+      </c>
+      <c r="AA75">
+        <v>663.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1372.8</v>
+      </c>
+      <c r="D76">
+        <v>6823</v>
+      </c>
+      <c r="E76">
+        <v>790.6</v>
+      </c>
+      <c r="F76">
+        <v>1980.2</v>
+      </c>
+      <c r="G76">
+        <v>7734.8</v>
+      </c>
+      <c r="H76">
+        <v>20894.400000000001</v>
+      </c>
+      <c r="I76">
+        <v>1145.4000000000001</v>
+      </c>
+      <c r="J76">
+        <v>11159.1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>5895.8</v>
+      </c>
+      <c r="O76">
+        <v>25213.4</v>
+      </c>
+      <c r="P76">
+        <v>11159.1</v>
+      </c>
+      <c r="Q76">
+        <v>2708.2</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-4319</v>
+      </c>
+      <c r="U76">
+        <v>4763.3</v>
+      </c>
+      <c r="V76">
+        <v>1169.4000000000001</v>
+      </c>
+      <c r="W76">
+        <v>-436.2</v>
+      </c>
+      <c r="X76">
+        <v>1355.1</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AA76">
+        <v>1372.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43737</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>802.8</v>
+      </c>
+      <c r="D77">
+        <v>6747</v>
+      </c>
+      <c r="E77">
+        <v>879.2</v>
+      </c>
+      <c r="F77">
+        <v>1898.1</v>
+      </c>
+      <c r="G77">
+        <v>5653.9</v>
+      </c>
+      <c r="H77">
+        <v>19219.599999999999</v>
+      </c>
+      <c r="I77">
+        <v>1189.7</v>
+      </c>
+      <c r="J77">
+        <v>11169.6</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>6168.7</v>
+      </c>
+      <c r="O77">
+        <v>25450.6</v>
+      </c>
+      <c r="P77">
+        <v>11169.6</v>
+      </c>
+      <c r="Q77">
+        <v>-2076.6999999999998</v>
+      </c>
+      <c r="R77">
+        <v>43737</v>
+      </c>
+      <c r="S77">
+        <v>346000</v>
+      </c>
+      <c r="T77">
+        <v>-6231</v>
+      </c>
+      <c r="U77">
+        <v>2686.6</v>
+      </c>
+      <c r="V77">
+        <v>1108.2</v>
+      </c>
+      <c r="W77">
+        <v>-430.6</v>
+      </c>
+      <c r="X77">
+        <v>-2634.1</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>4.8</v>
+      </c>
+      <c r="AA77">
+        <v>802.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43828</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>885.7</v>
+      </c>
+      <c r="D78">
+        <v>7097.1</v>
+      </c>
+      <c r="E78">
+        <v>908.1</v>
+      </c>
+      <c r="F78">
+        <v>2039.2</v>
+      </c>
+      <c r="G78">
+        <v>5899.7</v>
+      </c>
+      <c r="H78">
+        <v>27731.3</v>
+      </c>
+      <c r="I78">
+        <v>1085.5999999999999</v>
+      </c>
+      <c r="J78">
+        <v>10653.2</v>
+      </c>
+      <c r="K78">
+        <v>497.9</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>8675.5</v>
+      </c>
+      <c r="O78">
+        <v>34490.400000000001</v>
+      </c>
+      <c r="P78">
+        <v>20630.400000000001</v>
+      </c>
+      <c r="Q78">
+        <v>353.9</v>
+      </c>
+      <c r="R78">
+        <v>43828</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>-6759.1</v>
+      </c>
+      <c r="U78">
+        <v>3040.5</v>
+      </c>
+      <c r="V78">
+        <v>1836.1</v>
+      </c>
+      <c r="W78">
+        <v>-484.2</v>
+      </c>
+      <c r="X78">
+        <v>-1123</v>
+      </c>
+      <c r="Y78">
+        <v>7711.7</v>
+      </c>
+      <c r="Z78">
+        <v>27.9</v>
+      </c>
+      <c r="AA78">
+        <v>885.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>328.4</v>
+      </c>
+      <c r="D79">
+        <v>5995.7</v>
+      </c>
+      <c r="E79">
+        <v>941</v>
+      </c>
+      <c r="F79">
+        <v>1276.5999999999999</v>
+      </c>
+      <c r="G79">
+        <v>5749.9</v>
+      </c>
+      <c r="H79">
+        <v>27478.9</v>
+      </c>
+      <c r="I79">
+        <v>997.7</v>
+      </c>
+      <c r="J79">
+        <v>11725.7</v>
+      </c>
+      <c r="K79">
+        <v>1107.0999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>8265.7999999999993</v>
+      </c>
+      <c r="O79">
+        <v>35011.800000000003</v>
+      </c>
+      <c r="P79">
+        <v>22986.1</v>
+      </c>
+      <c r="Q79">
+        <v>-468.2</v>
+      </c>
+      <c r="R79">
+        <v>43919</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-7532.9</v>
+      </c>
+      <c r="U79">
+        <v>2572.3000000000002</v>
+      </c>
+      <c r="V79">
+        <v>-1361.3</v>
+      </c>
+      <c r="W79">
+        <v>-481</v>
+      </c>
+      <c r="X79">
+        <v>1273.0999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>7650.4</v>
+      </c>
+      <c r="Z79">
+        <v>5</v>
+      </c>
+      <c r="AA79">
+        <v>328.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-678.4</v>
+      </c>
+      <c r="D80">
+        <v>4222.1000000000004</v>
+      </c>
+      <c r="E80">
+        <v>881.1</v>
+      </c>
+      <c r="F80">
+        <v>200.3</v>
+      </c>
+      <c r="G80">
+        <v>7581</v>
+      </c>
+      <c r="H80">
+        <v>29140.6</v>
+      </c>
+      <c r="I80">
+        <v>860.8</v>
+      </c>
+      <c r="J80">
+        <v>14717.9</v>
+      </c>
+      <c r="K80">
+        <v>936.5</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>8002</v>
+      </c>
+      <c r="O80">
+        <v>37764.9</v>
+      </c>
+      <c r="P80">
+        <v>25794.7</v>
+      </c>
+      <c r="Q80">
+        <v>1393.6</v>
+      </c>
+      <c r="R80">
+        <v>44010</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-8624.2999999999993</v>
+      </c>
+      <c r="U80">
+        <v>3965.9</v>
+      </c>
+      <c r="V80">
+        <v>-367.7</v>
+      </c>
+      <c r="W80">
+        <v>-479</v>
+      </c>
+      <c r="X80">
+        <v>2342.9</v>
+      </c>
+      <c r="Y80">
+        <v>7653.6</v>
+      </c>
+      <c r="Z80">
+        <v>-186.8</v>
+      </c>
+      <c r="AA80">
+        <v>-678.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>392.6</v>
+      </c>
+      <c r="D81">
+        <v>6203.1</v>
+      </c>
+      <c r="E81">
+        <v>883.4</v>
+      </c>
+      <c r="F81">
+        <v>1625.1</v>
+      </c>
+      <c r="G81">
+        <v>7806.4</v>
+      </c>
+      <c r="H81">
+        <v>29374.5</v>
+      </c>
+      <c r="I81">
+        <v>997.9</v>
+      </c>
+      <c r="J81">
+        <v>14728.9</v>
+      </c>
+      <c r="K81">
+        <v>438.8</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>7346.8</v>
+      </c>
+      <c r="O81">
+        <v>37173.9</v>
+      </c>
+      <c r="P81">
+        <v>25396</v>
+      </c>
+      <c r="Q81">
+        <v>385</v>
+      </c>
+      <c r="R81">
+        <v>44101</v>
+      </c>
+      <c r="S81">
+        <v>349000</v>
+      </c>
+      <c r="T81">
+        <v>-7799.4</v>
+      </c>
+      <c r="U81">
+        <v>4350.8999999999996</v>
+      </c>
+      <c r="V81">
+        <v>1490.7</v>
+      </c>
+      <c r="W81">
+        <v>-479.3</v>
+      </c>
+      <c r="X81">
+        <v>-779.7</v>
+      </c>
+      <c r="Y81">
+        <v>7724.4</v>
+      </c>
+      <c r="Z81">
+        <v>-29.6</v>
+      </c>
+      <c r="AA81">
+        <v>392.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>622.20000000000005</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>6749.4</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>888</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1833</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>8357.5</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>29968.400000000001</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1050.5999999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>14720.3</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>492.6</v>
       </c>
-      <c r="L42">
+      <c r="L82">
         <v>-144.69999999999999</v>
       </c>
-      <c r="M42">
+      <c r="M82">
         <v>-500</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>7883.9</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>37872.400000000001</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>24985</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>677.2</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44192</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>-7904</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5028.1000000000004</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1835.7</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-528.20000000000005</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-965.8</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>7754.5</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>69.400000000000006</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>622.20000000000005</v>
       </c>
     </row>
